--- a/Puxar Dados da Loggi/Base.Rua.Juntos/Base_Rua_Juntos.xlsx
+++ b/Puxar Dados da Loggi/Base.Rua.Juntos/Base_Rua_Juntos.xlsx
@@ -531,7 +531,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45806</v>
+        <v>45828</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -544,12 +544,12 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>475761697</v>
+        <v>475224931</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45828</v>
+        <v>45806</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>475224931</v>
+        <v>475761697</v>
       </c>
     </row>
     <row r="8">
@@ -2763,7 +2763,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45806</v>
+        <v>45826</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2772,16 +2772,16 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>476497758</v>
+        <v>476299035</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45826</v>
+        <v>45806</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2790,16 +2790,16 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>476299035</v>
+        <v>476497758</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45824</v>
+        <v>45997</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2812,12 +2812,12 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>479145421</v>
+        <v>479048750</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2830,12 +2830,12 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>479260216</v>
+        <v>479170696</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45821</v>
+        <v>45967</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>479662445</v>
+        <v>479039704</v>
       </c>
     </row>
     <row r="135">
@@ -2866,12 +2866,12 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>479861965</v>
+        <v>479145421</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2884,12 +2884,12 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>478927952</v>
+        <v>479260216</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45831</v>
+        <v>45821</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2902,12 +2902,12 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>479170696</v>
+        <v>479662445</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45997</v>
+        <v>45824</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>479048750</v>
+        <v>479861965</v>
       </c>
     </row>
     <row r="139">
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>479811158</v>
+        <v>478927952</v>
       </c>
     </row>
     <row r="140">
@@ -2956,12 +2956,12 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>479699429</v>
+        <v>479888688</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45825</v>
+        <v>45824</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2970,16 +2970,16 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>478733236</v>
+        <v>479922866</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2988,16 +2988,16 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>479685396</v>
+        <v>479488957</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45825</v>
+        <v>45821</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3010,12 +3010,12 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>479671645</v>
+        <v>479829656</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45826</v>
+        <v>45824</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3028,12 +3028,12 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>479873074</v>
+        <v>479830079</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3046,12 +3046,12 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>479598194</v>
+        <v>479612175</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45824</v>
+        <v>45821</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>479612175</v>
+        <v>479598194</v>
       </c>
     </row>
     <row r="147">
@@ -3105,7 +3105,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45906</v>
+        <v>45824</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3118,12 +3118,12 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>478446344</v>
+        <v>479685396</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3136,12 +3136,12 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>479767036</v>
+        <v>479699429</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45825</v>
+        <v>45821</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3154,12 +3154,12 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>479486422</v>
+        <v>479811158</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45967</v>
+        <v>45825</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3168,16 +3168,16 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>479039704</v>
+        <v>478733236</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3190,12 +3190,12 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>479829656</v>
+        <v>479486422</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45824</v>
+        <v>45906</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>479922866</v>
+        <v>478446344</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45825</v>
+        <v>45824</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>479488957</v>
+        <v>479767036</v>
       </c>
     </row>
     <row r="156">
@@ -3244,12 +3244,12 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>479888688</v>
+        <v>479671645</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>479830079</v>
+        <v>479873074</v>
       </c>
     </row>
     <row r="158">
@@ -3316,12 +3316,12 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>479600252</v>
+        <v>479930679</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -3334,12 +3334,12 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>479683637</v>
+        <v>479950953</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>479534361</v>
+        <v>479301523</v>
       </c>
     </row>
     <row r="163">
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>479930679</v>
+        <v>479242483</v>
       </c>
     </row>
     <row r="164">
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>479598264</v>
+        <v>479186862</v>
       </c>
     </row>
     <row r="165">
@@ -3406,12 +3406,12 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>479548659</v>
+        <v>479600252</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45824</v>
+        <v>45832</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3424,12 +3424,12 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>479256924</v>
+        <v>479683637</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>479301523</v>
+        <v>479534361</v>
       </c>
     </row>
     <row r="168">
@@ -3460,12 +3460,12 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>479242483</v>
+        <v>479548659</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45828</v>
+        <v>45824</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>479186862</v>
+        <v>479256924</v>
       </c>
     </row>
     <row r="170">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>479950953</v>
+        <v>479598264</v>
       </c>
     </row>
     <row r="171">
@@ -8607,7 +8607,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>479698523</v>
+        <v>479389749</v>
       </c>
     </row>
     <row r="456">
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>478952430</v>
+        <v>479698523</v>
       </c>
     </row>
     <row r="457">
@@ -8656,7 +8656,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>478671068</v>
+        <v>478952430</v>
       </c>
     </row>
     <row r="458">
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>479722711</v>
+        <v>478671068</v>
       </c>
     </row>
     <row r="459">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>479936401</v>
+        <v>479722711</v>
       </c>
     </row>
     <row r="460">
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>479913718</v>
+        <v>479936401</v>
       </c>
     </row>
     <row r="461">
@@ -8728,12 +8728,12 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>479855117</v>
+        <v>479913718</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -8742,16 +8742,16 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D462" t="n">
-        <v>478881771</v>
+        <v>479855117</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45821</v>
+        <v>45967</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -8764,12 +8764,12 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>478454545</v>
+        <v>478897310</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45828</v>
+        <v>45824</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -8782,12 +8782,12 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>479726758</v>
+        <v>478881771</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45833</v>
+        <v>45821</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -8796,16 +8796,16 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D465" t="n">
-        <v>479619543</v>
+        <v>478454545</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -8818,12 +8818,12 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>479946544</v>
+        <v>479597968</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -8836,12 +8836,12 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>479960528</v>
+        <v>478883594</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -8854,12 +8854,12 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>478773516</v>
+        <v>479932888</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -8872,12 +8872,12 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>479894630</v>
+        <v>479364152</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -8890,12 +8890,12 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>478743362</v>
+        <v>479948924</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -8908,12 +8908,12 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>479873389</v>
+        <v>479630974</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -8926,12 +8926,12 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>479750969</v>
+        <v>479726997</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -8944,12 +8944,12 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>479938919</v>
+        <v>479851872</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -8962,12 +8962,12 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>479848010</v>
+        <v>479453970</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -8980,12 +8980,12 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>479479319</v>
+        <v>479677609</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -8998,12 +8998,12 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>479518037</v>
+        <v>479863965</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -9016,12 +9016,12 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>479920763</v>
+        <v>479922159</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45833</v>
+        <v>45997</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -9030,11 +9030,11 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D478" t="n">
-        <v>479909848</v>
+        <v>478932659</v>
       </c>
     </row>
     <row r="479">
@@ -9048,16 +9048,16 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>479601782</v>
+        <v>479726758</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45824</v>
+        <v>45997</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -9066,16 +9066,16 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Aguardando devolução</t>
         </is>
       </c>
       <c r="D480" t="n">
-        <v>479715934</v>
+        <v>478716188</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -9088,12 +9088,12 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>479130490</v>
+        <v>478743362</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45997</v>
+        <v>45833</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -9106,12 +9106,12 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>478762829</v>
+        <v>479873389</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45825</v>
+        <v>45828</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -9124,12 +9124,12 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>479529679</v>
+        <v>478773516</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45824</v>
+        <v>45833</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -9142,12 +9142,12 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>479769141</v>
+        <v>479960528</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45997</v>
+        <v>45828</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -9156,16 +9156,16 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Aguardando devolução</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>478716188</v>
+        <v>479894630</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -9174,16 +9174,16 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D486" t="n">
-        <v>479297703</v>
+        <v>479750969</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -9196,12 +9196,12 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>478986456</v>
+        <v>479479319</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45967</v>
+        <v>45833</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -9210,16 +9210,16 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D488" t="n">
-        <v>478897310</v>
+        <v>479518037</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -9232,12 +9232,12 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>479389749</v>
+        <v>479938919</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -9250,12 +9250,12 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>479597968</v>
+        <v>479848010</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -9268,12 +9268,12 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>478883594</v>
+        <v>479619543</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -9286,12 +9286,12 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>479932888</v>
+        <v>479946544</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -9304,12 +9304,12 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>479364152</v>
+        <v>479920763</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -9322,12 +9322,12 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>479948924</v>
+        <v>479601782</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -9340,12 +9340,12 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>479630974</v>
+        <v>479909848</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45832</v>
+        <v>45826</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -9354,16 +9354,16 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D496" t="n">
-        <v>479726997</v>
+        <v>479297703</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45831</v>
+        <v>45826</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -9376,12 +9376,12 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>479453970</v>
+        <v>478986456</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45831</v>
+        <v>45997</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -9394,12 +9394,12 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>479677609</v>
+        <v>478762829</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45831</v>
+        <v>45824</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -9412,12 +9412,12 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>479863965</v>
+        <v>479769141</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45831</v>
+        <v>45825</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -9430,12 +9430,12 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>479922159</v>
+        <v>479529679</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45831</v>
+        <v>45826</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -9448,12 +9448,12 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>479851872</v>
+        <v>479130490</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45997</v>
+        <v>45824</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -9462,11 +9462,11 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D502" t="n">
-        <v>478932659</v>
+        <v>479715934</v>
       </c>
     </row>
     <row r="503">
@@ -9489,7 +9489,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -9502,12 +9502,12 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>479697548</v>
+        <v>479920281</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>479920281</v>
+        <v>479697548</v>
       </c>
     </row>
     <row r="506">
@@ -12655,7 +12655,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>45783</v>
+        <v>45936</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
@@ -12668,12 +12668,12 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>477238762</v>
+        <v>477033267</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>45936</v>
+        <v>45906</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
@@ -12682,16 +12682,16 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D682" t="n">
-        <v>477033267</v>
+        <v>477902702</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>45906</v>
+        <v>45783</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
@@ -12700,11 +12700,11 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D683" t="n">
-        <v>477902702</v>
+        <v>477238762</v>
       </c>
     </row>
     <row r="684">
@@ -12727,7 +12727,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>45783</v>
+        <v>45906</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>477296622</v>
+        <v>477510519</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>45906</v>
+        <v>45783</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>477510519</v>
+        <v>477296622</v>
       </c>
     </row>
     <row r="687">
@@ -12889,7 +12889,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>45831</v>
+        <v>45936</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
@@ -12898,16 +12898,16 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D694" t="n">
-        <v>479803239</v>
+        <v>478108901</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>45936</v>
+        <v>45997</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
@@ -12920,12 +12920,12 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>478108901</v>
+        <v>478614563</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>45997</v>
+        <v>45831</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
@@ -12934,16 +12934,16 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D696" t="n">
-        <v>478614563</v>
+        <v>479916258</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
@@ -12956,12 +12956,12 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>479760338</v>
+        <v>479858176</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>479840037</v>
+        <v>479698739</v>
       </c>
     </row>
     <row r="699">
@@ -12992,12 +12992,12 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>479183737</v>
+        <v>479898023</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>479952068</v>
+        <v>479783181</v>
       </c>
     </row>
     <row r="701">
@@ -13028,12 +13028,12 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>479181315</v>
+        <v>479834473</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
@@ -13046,12 +13046,12 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>479835666</v>
+        <v>479668556</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>45832</v>
+        <v>45835</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>479716428</v>
+        <v>479861200</v>
       </c>
     </row>
     <row r="704">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>479907826</v>
+        <v>478443549</v>
       </c>
     </row>
     <row r="705">
@@ -13100,12 +13100,12 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>479760998</v>
+        <v>479758955</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>45831</v>
+        <v>45835</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
@@ -13118,12 +13118,12 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>479874602</v>
+        <v>479421150</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>45831</v>
+        <v>45834</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
@@ -13136,12 +13136,12 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>479808973</v>
+        <v>479394307</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>45831</v>
+        <v>45835</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
@@ -13154,12 +13154,12 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>479161660</v>
+        <v>479666699</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>479698188</v>
+        <v>479940347</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>45835</v>
+        <v>45831</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
@@ -13190,12 +13190,12 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>479870487</v>
+        <v>479623069</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>45834</v>
+        <v>45832</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
@@ -13208,12 +13208,12 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>479499175</v>
+        <v>478923774</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>45834</v>
+        <v>45832</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
@@ -13226,12 +13226,12 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>479161700</v>
+        <v>479285274</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>45835</v>
+        <v>45831</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
@@ -13244,12 +13244,12 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>478956200</v>
+        <v>479805193</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
@@ -13262,12 +13262,12 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>479973493</v>
+        <v>479456896</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
@@ -13280,12 +13280,12 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>479758955</v>
+        <v>479172938</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>45835</v>
+        <v>45831</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
@@ -13298,12 +13298,12 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>479861200</v>
+        <v>479425732</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>45835</v>
+        <v>45832</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>479421150</v>
+        <v>479550889</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>45835</v>
+        <v>45831</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
@@ -13334,12 +13334,12 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>479666699</v>
+        <v>478791091</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>479394307</v>
+        <v>479108625</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>479456896</v>
+        <v>479677765</v>
       </c>
     </row>
     <row r="721">
@@ -13388,12 +13388,12 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>479172938</v>
+        <v>479885723</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>479425732</v>
+        <v>479797069</v>
       </c>
     </row>
     <row r="723">
@@ -13424,12 +13424,12 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>478443549</v>
+        <v>478992695</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
@@ -13442,12 +13442,12 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>479805193</v>
+        <v>479829194</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>45832</v>
+        <v>45824</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
@@ -13456,11 +13456,11 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Endereço errado</t>
         </is>
       </c>
       <c r="D725" t="n">
-        <v>478923774</v>
+        <v>478368802</v>
       </c>
     </row>
     <row r="726">
@@ -13478,7 +13478,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>479285274</v>
+        <v>479115812</v>
       </c>
     </row>
     <row r="727">
@@ -13496,12 +13496,12 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>479797069</v>
+        <v>479877772</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
@@ -13514,12 +13514,12 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>478992695</v>
+        <v>479782681</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>479108625</v>
+        <v>479978033</v>
       </c>
     </row>
     <row r="730">
@@ -13550,7 +13550,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>479940347</v>
+        <v>479692100</v>
       </c>
     </row>
     <row r="731">
@@ -13568,12 +13568,12 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>479623069</v>
+        <v>479673040</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>479550889</v>
+        <v>479893134</v>
       </c>
     </row>
     <row r="733">
@@ -13604,12 +13604,12 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>478791091</v>
+        <v>479522162</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>45831</v>
+        <v>45834</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
@@ -13622,12 +13622,12 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>479203040</v>
+        <v>479684719</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>45831</v>
+        <v>45834</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
@@ -13640,12 +13640,12 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>478819902</v>
+        <v>479627405</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
@@ -13658,12 +13658,12 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>479755128</v>
+        <v>479757430</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>479829194</v>
+        <v>479203040</v>
       </c>
     </row>
     <row r="738">
@@ -13694,7 +13694,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>479394978</v>
+        <v>478819902</v>
       </c>
     </row>
     <row r="739">
@@ -13712,7 +13712,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>479677765</v>
+        <v>479755128</v>
       </c>
     </row>
     <row r="740">
@@ -13730,12 +13730,12 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>479885723</v>
+        <v>479394978</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>479684719</v>
+        <v>478956200</v>
       </c>
     </row>
     <row r="742">
@@ -13766,7 +13766,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>479627405</v>
+        <v>479499175</v>
       </c>
     </row>
     <row r="743">
@@ -13784,12 +13784,12 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>479757430</v>
+        <v>479161700</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>45832</v>
+        <v>45835</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
@@ -13802,12 +13802,12 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>479834473</v>
+        <v>479870487</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>479668556</v>
+        <v>479973493</v>
       </c>
     </row>
     <row r="746">
@@ -13838,7 +13838,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>479916258</v>
+        <v>479760338</v>
       </c>
     </row>
     <row r="747">
@@ -13856,12 +13856,12 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>479858176</v>
+        <v>479952068</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
@@ -13874,12 +13874,12 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>479698739</v>
+        <v>479181315</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>479898023</v>
+        <v>479835666</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
@@ -13910,12 +13910,12 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>479783181</v>
+        <v>479716428</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
@@ -13928,12 +13928,12 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>479972248</v>
+        <v>479840037</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
@@ -13946,12 +13946,12 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>479477639</v>
+        <v>479183737</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
@@ -13964,12 +13964,12 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>479859581</v>
+        <v>479760998</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>45838</v>
+        <v>45831</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
@@ -13982,12 +13982,12 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>479541003</v>
+        <v>479874602</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
@@ -14000,12 +14000,12 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>479863678</v>
+        <v>479907826</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
@@ -14018,12 +14018,12 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>479182864</v>
+        <v>479808973</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>479602317</v>
+        <v>479161660</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
@@ -14054,12 +14054,12 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>479787300</v>
+        <v>479698188</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
@@ -14072,12 +14072,12 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>479896201</v>
+        <v>479972248</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>479889694</v>
+        <v>479477639</v>
       </c>
     </row>
     <row r="761">
@@ -14108,7 +14108,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>479868242</v>
+        <v>479852266</v>
       </c>
     </row>
     <row r="762">
@@ -14162,7 +14162,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>479852266</v>
+        <v>479889694</v>
       </c>
     </row>
     <row r="765">
@@ -14180,12 +14180,12 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>479977245</v>
+        <v>479868242</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>45833</v>
+        <v>45838</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>479993507</v>
+        <v>479541003</v>
       </c>
     </row>
     <row r="767">
@@ -14216,7 +14216,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>479624353</v>
+        <v>479863678</v>
       </c>
     </row>
     <row r="768">
@@ -14234,12 +14234,12 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>479928084</v>
+        <v>479182864</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>45824</v>
+        <v>45833</v>
       </c>
       <c r="B769" t="inlineStr">
         <is>
@@ -14248,16 +14248,16 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>Ausente</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D769" t="n">
-        <v>479204121</v>
+        <v>479602317</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B770" t="inlineStr">
         <is>
@@ -14266,16 +14266,16 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>Ausente</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D770" t="n">
-        <v>479935664</v>
+        <v>479787300</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B771" t="inlineStr">
         <is>
@@ -14284,16 +14284,16 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>Endereço errado</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D771" t="n">
-        <v>478834676</v>
+        <v>479896201</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>45997</v>
+        <v>45824</v>
       </c>
       <c r="B772" t="inlineStr">
         <is>
@@ -14302,16 +14302,16 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="D772" t="n">
-        <v>478803503</v>
+        <v>479204121</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>45936</v>
+        <v>45826</v>
       </c>
       <c r="B773" t="inlineStr">
         <is>
@@ -14320,16 +14320,16 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="D773" t="n">
-        <v>478199460</v>
+        <v>479935664</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>45828</v>
+        <v>45826</v>
       </c>
       <c r="B774" t="inlineStr">
         <is>
@@ -14338,16 +14338,16 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Endereço errado</t>
         </is>
       </c>
       <c r="D774" t="n">
-        <v>479070191</v>
+        <v>478834676</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B775" t="inlineStr">
         <is>
@@ -14360,12 +14360,12 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>478508738</v>
+        <v>479859581</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B776" t="inlineStr">
         <is>
@@ -14378,12 +14378,12 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>479367175</v>
+        <v>479977245</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B777" t="inlineStr">
         <is>
@@ -14396,12 +14396,12 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>479689899</v>
+        <v>479993507</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B778" t="inlineStr">
         <is>
@@ -14414,12 +14414,12 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>479323672</v>
+        <v>479624353</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B779" t="inlineStr">
         <is>
@@ -14432,12 +14432,12 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>479378129</v>
+        <v>479928084</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>45821</v>
+        <v>45997</v>
       </c>
       <c r="B780" t="inlineStr">
         <is>
@@ -14450,12 +14450,12 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>478036192</v>
+        <v>478803503</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>45821</v>
+        <v>45936</v>
       </c>
       <c r="B781" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>478315215</v>
+        <v>478199460</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B782" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>479167518</v>
+        <v>479803239</v>
       </c>
     </row>
     <row r="783">
@@ -14504,12 +14504,12 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>479692950</v>
+        <v>479378129</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B784" t="inlineStr">
         <is>
@@ -14522,12 +14522,12 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>479863888</v>
+        <v>479323672</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B785" t="inlineStr">
         <is>
@@ -14536,16 +14536,16 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D785" t="n">
-        <v>478429697</v>
+        <v>479070191</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B786" t="inlineStr">
         <is>
@@ -14554,16 +14554,16 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D786" t="n">
-        <v>478939540</v>
+        <v>479367175</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>45824</v>
+        <v>45828</v>
       </c>
       <c r="B787" t="inlineStr">
         <is>
@@ -14572,16 +14572,16 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>Endereço errado</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D787" t="n">
-        <v>478368802</v>
+        <v>479689899</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
@@ -14594,12 +14594,12 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>479782681</v>
+        <v>478508738</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>45831</v>
+        <v>45821</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>479522162</v>
+        <v>478315215</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>45831</v>
+        <v>45821</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>479692100</v>
+        <v>478036192</v>
       </c>
     </row>
     <row r="791">
@@ -14648,12 +14648,12 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>479115812</v>
+        <v>479863888</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B792" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>479877772</v>
+        <v>479167518</v>
       </c>
     </row>
     <row r="793">
@@ -14684,12 +14684,12 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>479978033</v>
+        <v>479692950</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>45831</v>
+        <v>45821</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
@@ -14698,16 +14698,16 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D794" t="n">
-        <v>479673040</v>
+        <v>478939540</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>45831</v>
+        <v>45821</v>
       </c>
       <c r="B795" t="inlineStr">
         <is>
@@ -14716,11 +14716,11 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D795" t="n">
-        <v>479893134</v>
+        <v>478429697</v>
       </c>
     </row>
     <row r="796">
@@ -21687,7 +21687,7 @@
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
@@ -21700,12 +21700,12 @@
         </is>
       </c>
       <c r="D1184" t="n">
-        <v>479258957</v>
+        <v>479370455</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
-        <v>45826</v>
+        <v>45831</v>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
@@ -21718,12 +21718,12 @@
         </is>
       </c>
       <c r="D1185" t="n">
-        <v>478777664</v>
+        <v>479525160</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
-        <v>45997</v>
+        <v>45832</v>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
@@ -21736,12 +21736,12 @@
         </is>
       </c>
       <c r="D1186" t="n">
-        <v>478604017</v>
+        <v>479519322</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
@@ -21754,12 +21754,12 @@
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>479370455</v>
+        <v>479030246</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="D1188" t="n">
-        <v>479525160</v>
+        <v>479785504</v>
       </c>
     </row>
     <row r="1189">
@@ -21795,7 +21795,7 @@
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
-        <v>45832</v>
+        <v>45997</v>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="D1190" t="n">
-        <v>479519322</v>
+        <v>478604017</v>
       </c>
     </row>
     <row r="1191">
@@ -21826,12 +21826,12 @@
         </is>
       </c>
       <c r="D1191" t="n">
-        <v>479030246</v>
+        <v>478478134</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
@@ -21844,12 +21844,12 @@
         </is>
       </c>
       <c r="D1192" t="n">
-        <v>479785504</v>
+        <v>479768777</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
@@ -21862,12 +21862,12 @@
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>479744911</v>
+        <v>479857565</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
@@ -21880,12 +21880,12 @@
         </is>
       </c>
       <c r="D1194" t="n">
-        <v>479487584</v>
+        <v>479418309</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
-        <v>45828</v>
+        <v>45826</v>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
@@ -21898,12 +21898,12 @@
         </is>
       </c>
       <c r="D1195" t="n">
-        <v>479238624</v>
+        <v>478777664</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
@@ -21916,12 +21916,12 @@
         </is>
       </c>
       <c r="D1196" t="n">
-        <v>479768777</v>
+        <v>479258957</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
@@ -21934,12 +21934,12 @@
         </is>
       </c>
       <c r="D1197" t="n">
-        <v>479857565</v>
+        <v>479744911</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
@@ -21952,12 +21952,12 @@
         </is>
       </c>
       <c r="D1198" t="n">
-        <v>479418309</v>
+        <v>479487584</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
-        <v>45831</v>
+        <v>45821</v>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
@@ -21966,16 +21966,16 @@
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="D1199" t="n">
-        <v>478478134</v>
+        <v>478580122</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         </is>
       </c>
       <c r="D1200" t="n">
-        <v>479435729</v>
+        <v>479992843</v>
       </c>
     </row>
     <row r="1201">
@@ -22006,12 +22006,12 @@
         </is>
       </c>
       <c r="D1201" t="n">
-        <v>479826738</v>
+        <v>479584422</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
@@ -22024,12 +22024,12 @@
         </is>
       </c>
       <c r="D1202" t="n">
-        <v>479168898</v>
+        <v>479387821</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
@@ -22042,12 +22042,12 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>479870512</v>
+        <v>479259729</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
@@ -22060,12 +22060,12 @@
         </is>
       </c>
       <c r="D1204" t="n">
-        <v>479763968</v>
+        <v>479177130</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
@@ -22078,12 +22078,12 @@
         </is>
       </c>
       <c r="D1205" t="n">
-        <v>479259729</v>
+        <v>479965377</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
@@ -22096,12 +22096,12 @@
         </is>
       </c>
       <c r="D1206" t="n">
-        <v>479177130</v>
+        <v>479786365</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         </is>
       </c>
       <c r="D1207" t="n">
-        <v>479584422</v>
+        <v>478683076</v>
       </c>
     </row>
     <row r="1208">
@@ -22132,12 +22132,12 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>479965377</v>
+        <v>479726073</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="D1209" t="n">
-        <v>479387821</v>
+        <v>479852241</v>
       </c>
     </row>
     <row r="1210">
@@ -22168,12 +22168,12 @@
         </is>
       </c>
       <c r="D1210" t="n">
-        <v>479786365</v>
+        <v>479411283</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
@@ -22186,12 +22186,12 @@
         </is>
       </c>
       <c r="D1211" t="n">
-        <v>479992843</v>
+        <v>478233329</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
-        <v>45821</v>
+        <v>45832</v>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
@@ -22200,16 +22200,16 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Ausente</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D1212" t="n">
-        <v>478580122</v>
+        <v>479813584</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
@@ -22222,12 +22222,12 @@
         </is>
       </c>
       <c r="D1213" t="n">
-        <v>479857540</v>
+        <v>479821882</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
@@ -22240,12 +22240,12 @@
         </is>
       </c>
       <c r="D1214" t="n">
-        <v>479900822</v>
+        <v>479992604</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         </is>
       </c>
       <c r="D1215" t="n">
-        <v>479646104</v>
+        <v>479549817</v>
       </c>
     </row>
     <row r="1216">
@@ -22276,12 +22276,12 @@
         </is>
       </c>
       <c r="D1216" t="n">
-        <v>479926690</v>
+        <v>479412718</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
@@ -22294,12 +22294,12 @@
         </is>
       </c>
       <c r="D1217" t="n">
-        <v>479699656</v>
+        <v>479684376</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="D1218" t="n">
-        <v>479832780</v>
+        <v>479637218</v>
       </c>
     </row>
     <row r="1219">
@@ -22330,12 +22330,12 @@
         </is>
       </c>
       <c r="D1219" t="n">
-        <v>479071362</v>
+        <v>479292291</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
-        <v>45835</v>
+        <v>45834</v>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
@@ -22348,12 +22348,12 @@
         </is>
       </c>
       <c r="D1220" t="n">
-        <v>479683314</v>
+        <v>479931674</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
-        <v>45835</v>
+        <v>45834</v>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
@@ -22366,12 +22366,12 @@
         </is>
       </c>
       <c r="D1221" t="n">
-        <v>479530598</v>
+        <v>479052256</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         </is>
       </c>
       <c r="D1222" t="n">
-        <v>479438817</v>
+        <v>478638446</v>
       </c>
     </row>
     <row r="1223">
@@ -22402,12 +22402,12 @@
         </is>
       </c>
       <c r="D1223" t="n">
-        <v>479975007</v>
+        <v>479496495</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
@@ -22420,12 +22420,12 @@
         </is>
       </c>
       <c r="D1224" t="n">
-        <v>479954389</v>
+        <v>478616382</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="D1225" t="n">
-        <v>479925593</v>
+        <v>479899180</v>
       </c>
     </row>
     <row r="1226">
@@ -22456,12 +22456,12 @@
         </is>
       </c>
       <c r="D1226" t="n">
-        <v>479921551</v>
+        <v>479945388</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
@@ -22474,12 +22474,12 @@
         </is>
       </c>
       <c r="D1227" t="n">
-        <v>479238847</v>
+        <v>479619338</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
@@ -22492,12 +22492,12 @@
         </is>
       </c>
       <c r="D1228" t="n">
-        <v>479392148</v>
+        <v>479693409</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
@@ -22510,12 +22510,12 @@
         </is>
       </c>
       <c r="D1229" t="n">
-        <v>479598805</v>
+        <v>479053581</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
@@ -22528,12 +22528,12 @@
         </is>
       </c>
       <c r="D1230" t="n">
-        <v>479475727</v>
+        <v>479871437</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
@@ -22546,12 +22546,12 @@
         </is>
       </c>
       <c r="D1231" t="n">
-        <v>479852446</v>
+        <v>479888674</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
@@ -22564,12 +22564,12 @@
         </is>
       </c>
       <c r="D1232" t="n">
-        <v>479925138</v>
+        <v>479766052</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         </is>
       </c>
       <c r="D1233" t="n">
-        <v>479924441</v>
+        <v>479418351</v>
       </c>
     </row>
     <row r="1234">
@@ -22600,12 +22600,12 @@
         </is>
       </c>
       <c r="D1234" t="n">
-        <v>479944813</v>
+        <v>479733570</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
@@ -22618,12 +22618,12 @@
         </is>
       </c>
       <c r="D1235" t="n">
-        <v>479818968</v>
+        <v>479534833</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         </is>
       </c>
       <c r="D1236" t="n">
-        <v>479967260</v>
+        <v>479007222</v>
       </c>
     </row>
     <row r="1237">
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="D1237" t="n">
-        <v>479889413</v>
+        <v>479596120</v>
       </c>
     </row>
     <row r="1238">
@@ -22672,12 +22672,12 @@
         </is>
       </c>
       <c r="D1238" t="n">
-        <v>479639274</v>
+        <v>479943821</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
@@ -22690,12 +22690,12 @@
         </is>
       </c>
       <c r="D1239" t="n">
-        <v>479863933</v>
+        <v>479902393</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
@@ -22708,12 +22708,12 @@
         </is>
       </c>
       <c r="D1240" t="n">
-        <v>479863686</v>
+        <v>479657246</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
@@ -22726,12 +22726,12 @@
         </is>
       </c>
       <c r="D1241" t="n">
-        <v>479729095</v>
+        <v>479947829</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
@@ -22744,12 +22744,12 @@
         </is>
       </c>
       <c r="D1242" t="n">
-        <v>478938480</v>
+        <v>479768142</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
@@ -22762,12 +22762,12 @@
         </is>
       </c>
       <c r="D1243" t="n">
-        <v>479302262</v>
+        <v>479852799</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
@@ -22780,12 +22780,12 @@
         </is>
       </c>
       <c r="D1244" t="n">
-        <v>478704816</v>
+        <v>479785623</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
@@ -22798,12 +22798,12 @@
         </is>
       </c>
       <c r="D1245" t="n">
-        <v>479918088</v>
+        <v>478821661</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" s="2" t="n">
-        <v>45838</v>
+        <v>45832</v>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
@@ -22816,12 +22816,12 @@
         </is>
       </c>
       <c r="D1246" t="n">
-        <v>479864596</v>
+        <v>479863986</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         </is>
       </c>
       <c r="D1247" t="n">
-        <v>479679273</v>
+        <v>479925473</v>
       </c>
     </row>
     <row r="1248">
@@ -22852,12 +22852,12 @@
         </is>
       </c>
       <c r="D1248" t="n">
-        <v>479889666</v>
+        <v>479994951</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
@@ -22870,12 +22870,12 @@
         </is>
       </c>
       <c r="D1249" t="n">
-        <v>479881591</v>
+        <v>479887927</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
@@ -22888,12 +22888,12 @@
         </is>
       </c>
       <c r="D1250" t="n">
-        <v>479889387</v>
+        <v>478259667</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         </is>
       </c>
       <c r="D1251" t="n">
-        <v>479944032</v>
+        <v>479684715</v>
       </c>
     </row>
     <row r="1252">
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="D1252" t="n">
-        <v>479957995</v>
+        <v>479784911</v>
       </c>
     </row>
     <row r="1253">
@@ -22942,12 +22942,12 @@
         </is>
       </c>
       <c r="D1253" t="n">
-        <v>479960012</v>
+        <v>479414630</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>479921758</v>
+        <v>479931565</v>
       </c>
     </row>
     <row r="1255">
@@ -22978,12 +22978,12 @@
         </is>
       </c>
       <c r="D1255" t="n">
-        <v>479411283</v>
+        <v>479217096</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>479726073</v>
+        <v>478982829</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
@@ -23014,12 +23014,12 @@
         </is>
       </c>
       <c r="D1257" t="n">
-        <v>479852241</v>
+        <v>479438817</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
@@ -23032,12 +23032,12 @@
         </is>
       </c>
       <c r="D1258" t="n">
-        <v>479813584</v>
+        <v>479975007</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>479821882</v>
+        <v>479954389</v>
       </c>
     </row>
     <row r="1260">
@@ -23068,12 +23068,12 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>478683076</v>
+        <v>479921551</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
@@ -23086,12 +23086,12 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>478233329</v>
+        <v>479238847</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B1262" t="inlineStr">
         <is>
@@ -23104,12 +23104,12 @@
         </is>
       </c>
       <c r="D1262" t="n">
-        <v>479052256</v>
+        <v>479683314</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
@@ -23122,12 +23122,12 @@
         </is>
       </c>
       <c r="D1263" t="n">
-        <v>479931674</v>
+        <v>479530598</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
@@ -23140,12 +23140,12 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>478638446</v>
+        <v>479925593</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" s="2" t="n">
-        <v>45831</v>
+        <v>45821</v>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
@@ -23158,12 +23158,12 @@
         </is>
       </c>
       <c r="D1265" t="n">
-        <v>479766052</v>
+        <v>479381717</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
-        <v>45831</v>
+        <v>45826</v>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
@@ -23172,16 +23172,16 @@
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="D1266" t="n">
-        <v>479007222</v>
+        <v>479176784</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
-        <v>45831</v>
+        <v>45826</v>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
@@ -23190,16 +23190,16 @@
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Endereço errado</t>
         </is>
       </c>
       <c r="D1267" t="n">
-        <v>479418351</v>
+        <v>479873670</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2" t="n">
-        <v>45832</v>
+        <v>45997</v>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
@@ -23212,12 +23212,12 @@
         </is>
       </c>
       <c r="D1268" t="n">
-        <v>479733570</v>
+        <v>478209296</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" s="2" t="n">
-        <v>45831</v>
+        <v>45824</v>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
@@ -23226,16 +23226,16 @@
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Ausente</t>
         </is>
       </c>
       <c r="D1269" t="n">
-        <v>479534833</v>
+        <v>478584164</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
@@ -23248,12 +23248,12 @@
         </is>
       </c>
       <c r="D1270" t="n">
-        <v>479053581</v>
+        <v>479392148</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
@@ -23266,12 +23266,12 @@
         </is>
       </c>
       <c r="D1271" t="n">
-        <v>479871437</v>
+        <v>479852446</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         </is>
       </c>
       <c r="D1272" t="n">
-        <v>479888674</v>
+        <v>479925138</v>
       </c>
     </row>
     <row r="1273">
@@ -23302,12 +23302,12 @@
         </is>
       </c>
       <c r="D1273" t="n">
-        <v>479992604</v>
+        <v>479924441</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
@@ -23320,12 +23320,12 @@
         </is>
       </c>
       <c r="D1274" t="n">
-        <v>479637218</v>
+        <v>479639274</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
@@ -23338,12 +23338,12 @@
         </is>
       </c>
       <c r="D1275" t="n">
-        <v>479292291</v>
+        <v>479475727</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
@@ -23356,12 +23356,12 @@
         </is>
       </c>
       <c r="D1276" t="n">
-        <v>479549817</v>
+        <v>479944813</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
@@ -23374,12 +23374,12 @@
         </is>
       </c>
       <c r="D1277" t="n">
-        <v>479412718</v>
+        <v>479818968</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         </is>
       </c>
       <c r="D1278" t="n">
-        <v>479684376</v>
+        <v>479967260</v>
       </c>
     </row>
     <row r="1279">
@@ -23410,12 +23410,12 @@
         </is>
       </c>
       <c r="D1279" t="n">
-        <v>479943821</v>
+        <v>479889413</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
@@ -23428,12 +23428,12 @@
         </is>
       </c>
       <c r="D1280" t="n">
-        <v>479785623</v>
+        <v>479598805</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
@@ -23446,12 +23446,12 @@
         </is>
       </c>
       <c r="D1281" t="n">
-        <v>479902393</v>
+        <v>479863933</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
@@ -23464,12 +23464,12 @@
         </is>
       </c>
       <c r="D1282" t="n">
-        <v>479657246</v>
+        <v>479863686</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
@@ -23482,12 +23482,12 @@
         </is>
       </c>
       <c r="D1283" t="n">
-        <v>479947829</v>
+        <v>479729095</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
@@ -23500,12 +23500,12 @@
         </is>
       </c>
       <c r="D1284" t="n">
-        <v>479768142</v>
+        <v>478938480</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
@@ -23518,12 +23518,12 @@
         </is>
       </c>
       <c r="D1285" t="n">
-        <v>479852799</v>
+        <v>479302262</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
@@ -23536,12 +23536,12 @@
         </is>
       </c>
       <c r="D1286" t="n">
-        <v>479887927</v>
+        <v>478704816</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" s="2" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="B1287" t="inlineStr">
         <is>
@@ -23554,12 +23554,12 @@
         </is>
       </c>
       <c r="D1287" t="n">
-        <v>478821661</v>
+        <v>479864596</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
@@ -23572,12 +23572,12 @@
         </is>
       </c>
       <c r="D1288" t="n">
-        <v>479863986</v>
+        <v>479918088</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
@@ -23590,12 +23590,12 @@
         </is>
       </c>
       <c r="D1289" t="n">
-        <v>479496495</v>
+        <v>479889666</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
@@ -23608,12 +23608,12 @@
         </is>
       </c>
       <c r="D1290" t="n">
-        <v>478616382</v>
+        <v>479679273</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
@@ -23626,12 +23626,12 @@
         </is>
       </c>
       <c r="D1291" t="n">
-        <v>479899180</v>
+        <v>479881591</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
@@ -23644,12 +23644,12 @@
         </is>
       </c>
       <c r="D1292" t="n">
-        <v>479945388</v>
+        <v>479889387</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
@@ -23662,12 +23662,12 @@
         </is>
       </c>
       <c r="D1293" t="n">
-        <v>479619338</v>
+        <v>479944032</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1294" t="inlineStr">
         <is>
@@ -23680,12 +23680,12 @@
         </is>
       </c>
       <c r="D1294" t="n">
-        <v>479693409</v>
+        <v>479957995</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
@@ -23698,12 +23698,12 @@
         </is>
       </c>
       <c r="D1295" t="n">
-        <v>479596120</v>
+        <v>479960012</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" s="2" t="n">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="B1296" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         </is>
       </c>
       <c r="D1296" t="n">
-        <v>479925473</v>
+        <v>479921758</v>
       </c>
     </row>
     <row r="1297">
@@ -23734,12 +23734,12 @@
         </is>
       </c>
       <c r="D1297" t="n">
-        <v>479994951</v>
+        <v>479857540</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" s="2" t="n">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="B1298" t="inlineStr">
         <is>
@@ -23752,12 +23752,12 @@
         </is>
       </c>
       <c r="D1298" t="n">
-        <v>479684715</v>
+        <v>479900822</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
@@ -23770,12 +23770,12 @@
         </is>
       </c>
       <c r="D1299" t="n">
-        <v>478259667</v>
+        <v>479646104</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         </is>
       </c>
       <c r="D1300" t="n">
-        <v>479931565</v>
+        <v>479926690</v>
       </c>
     </row>
     <row r="1301">
@@ -23806,7 +23806,7 @@
         </is>
       </c>
       <c r="D1301" t="n">
-        <v>479784911</v>
+        <v>479699656</v>
       </c>
     </row>
     <row r="1302">
@@ -23824,12 +23824,12 @@
         </is>
       </c>
       <c r="D1302" t="n">
-        <v>479414630</v>
+        <v>479832780</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
@@ -23842,12 +23842,12 @@
         </is>
       </c>
       <c r="D1303" t="n">
-        <v>479217096</v>
+        <v>479071362</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
-        <v>45831</v>
+        <v>45824</v>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
@@ -23860,12 +23860,12 @@
         </is>
       </c>
       <c r="D1304" t="n">
-        <v>478982829</v>
+        <v>479233064</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="D1305" t="n">
-        <v>479233064</v>
+        <v>479218997</v>
       </c>
     </row>
     <row r="1306">
@@ -23896,12 +23896,12 @@
         </is>
       </c>
       <c r="D1306" t="n">
-        <v>478209296</v>
+        <v>478021721</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" s="2" t="n">
-        <v>45824</v>
+        <v>45828</v>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
@@ -23910,16 +23910,16 @@
       </c>
       <c r="C1307" t="inlineStr">
         <is>
-          <t>Ausente</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D1307" t="n">
-        <v>478584164</v>
+        <v>479238624</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" s="2" t="n">
-        <v>45826</v>
+        <v>45831</v>
       </c>
       <c r="B1308" t="inlineStr">
         <is>
@@ -23932,12 +23932,12 @@
         </is>
       </c>
       <c r="D1308" t="n">
-        <v>479218997</v>
+        <v>479435729</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" s="2" t="n">
-        <v>45826</v>
+        <v>45831</v>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
@@ -23946,16 +23946,16 @@
       </c>
       <c r="C1309" t="inlineStr">
         <is>
-          <t>Ausente</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D1309" t="n">
-        <v>479176784</v>
+        <v>479826738</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
-        <v>45821</v>
+        <v>45832</v>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
@@ -23968,12 +23968,12 @@
         </is>
       </c>
       <c r="D1310" t="n">
-        <v>479381717</v>
+        <v>479168898</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
@@ -23982,16 +23982,16 @@
       </c>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>Endereço errado</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D1311" t="n">
-        <v>479873670</v>
+        <v>479763968</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" s="2" t="n">
-        <v>45997</v>
+        <v>45832</v>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         </is>
       </c>
       <c r="D1312" t="n">
-        <v>478021721</v>
+        <v>479870512</v>
       </c>
     </row>
     <row r="1313">
@@ -31454,7 +31454,7 @@
         </is>
       </c>
       <c r="D1726" t="n">
-        <v>480598750</v>
+        <v>480598463</v>
       </c>
     </row>
     <row r="1727">
@@ -31472,7 +31472,7 @@
         </is>
       </c>
       <c r="D1727" t="n">
-        <v>480266826</v>
+        <v>480283154</v>
       </c>
     </row>
     <row r="1728">
@@ -31490,7 +31490,7 @@
         </is>
       </c>
       <c r="D1728" t="n">
-        <v>480598463</v>
+        <v>480598606</v>
       </c>
     </row>
     <row r="1729">
@@ -31508,7 +31508,7 @@
         </is>
       </c>
       <c r="D1729" t="n">
-        <v>480283154</v>
+        <v>480598750</v>
       </c>
     </row>
     <row r="1730">
@@ -31526,7 +31526,7 @@
         </is>
       </c>
       <c r="D1730" t="n">
-        <v>480598606</v>
+        <v>480266826</v>
       </c>
     </row>
     <row r="1731">
@@ -31549,7 +31549,7 @@
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B1732" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         </is>
       </c>
       <c r="D1732" t="n">
-        <v>480107934</v>
+        <v>480162462</v>
       </c>
     </row>
     <row r="1733">
@@ -31580,7 +31580,7 @@
         </is>
       </c>
       <c r="D1733" t="n">
-        <v>480242368</v>
+        <v>480241629</v>
       </c>
     </row>
     <row r="1734">
@@ -31598,12 +31598,12 @@
         </is>
       </c>
       <c r="D1734" t="n">
-        <v>480162462</v>
+        <v>480242368</v>
       </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1735" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         </is>
       </c>
       <c r="D1735" t="n">
-        <v>480241629</v>
+        <v>480107934</v>
       </c>
     </row>
     <row r="1736">
@@ -31634,7 +31634,7 @@
         </is>
       </c>
       <c r="D1736" t="n">
-        <v>480108533</v>
+        <v>480114979</v>
       </c>
     </row>
     <row r="1737">
@@ -31652,7 +31652,7 @@
         </is>
       </c>
       <c r="D1737" t="n">
-        <v>480114979</v>
+        <v>480157300</v>
       </c>
     </row>
     <row r="1738">
@@ -31670,7 +31670,7 @@
         </is>
       </c>
       <c r="D1738" t="n">
-        <v>480157300</v>
+        <v>480266329</v>
       </c>
     </row>
     <row r="1739">
@@ -31688,7 +31688,7 @@
         </is>
       </c>
       <c r="D1739" t="n">
-        <v>480266329</v>
+        <v>480294539</v>
       </c>
     </row>
     <row r="1740">
@@ -31706,7 +31706,7 @@
         </is>
       </c>
       <c r="D1740" t="n">
-        <v>480294539</v>
+        <v>480369276</v>
       </c>
     </row>
     <row r="1741">
@@ -31724,7 +31724,7 @@
         </is>
       </c>
       <c r="D1741" t="n">
-        <v>480369276</v>
+        <v>480238586</v>
       </c>
     </row>
     <row r="1742">
@@ -31742,7 +31742,7 @@
         </is>
       </c>
       <c r="D1742" t="n">
-        <v>480238586</v>
+        <v>480108533</v>
       </c>
     </row>
     <row r="1743">
@@ -31796,7 +31796,7 @@
         </is>
       </c>
       <c r="D1745" t="n">
-        <v>480053048</v>
+        <v>480598149</v>
       </c>
     </row>
     <row r="1746">
@@ -31814,7 +31814,7 @@
         </is>
       </c>
       <c r="D1746" t="n">
-        <v>480598312</v>
+        <v>480053048</v>
       </c>
     </row>
     <row r="1747">
@@ -31832,7 +31832,7 @@
         </is>
       </c>
       <c r="D1747" t="n">
-        <v>480598149</v>
+        <v>480598312</v>
       </c>
     </row>
     <row r="1748">
@@ -31850,7 +31850,7 @@
         </is>
       </c>
       <c r="D1748" t="n">
-        <v>480493855</v>
+        <v>480216756</v>
       </c>
     </row>
     <row r="1749">
@@ -31868,7 +31868,7 @@
         </is>
       </c>
       <c r="D1749" t="n">
-        <v>480557885</v>
+        <v>480392924</v>
       </c>
     </row>
     <row r="1750">
@@ -31886,7 +31886,7 @@
         </is>
       </c>
       <c r="D1750" t="n">
-        <v>480376353</v>
+        <v>480257094</v>
       </c>
     </row>
     <row r="1751">
@@ -31904,7 +31904,7 @@
         </is>
       </c>
       <c r="D1751" t="n">
-        <v>480216756</v>
+        <v>480485948</v>
       </c>
     </row>
     <row r="1752">
@@ -31922,7 +31922,7 @@
         </is>
       </c>
       <c r="D1752" t="n">
-        <v>480257094</v>
+        <v>480534406</v>
       </c>
     </row>
     <row r="1753">
@@ -31940,7 +31940,7 @@
         </is>
       </c>
       <c r="D1753" t="n">
-        <v>480206514</v>
+        <v>480493855</v>
       </c>
     </row>
     <row r="1754">
@@ -31958,7 +31958,7 @@
         </is>
       </c>
       <c r="D1754" t="n">
-        <v>480485948</v>
+        <v>480432675</v>
       </c>
     </row>
     <row r="1755">
@@ -31976,7 +31976,7 @@
         </is>
       </c>
       <c r="D1755" t="n">
-        <v>480432675</v>
+        <v>480376353</v>
       </c>
     </row>
     <row r="1756">
@@ -32048,7 +32048,7 @@
         </is>
       </c>
       <c r="D1759" t="n">
-        <v>480534406</v>
+        <v>480206514</v>
       </c>
     </row>
     <row r="1760">
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="D1760" t="n">
-        <v>480392924</v>
+        <v>480557885</v>
       </c>
     </row>
     <row r="1761">
@@ -32080,11 +32080,11 @@
       </c>
       <c r="C1761" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D1761" t="n">
-        <v>480009786</v>
+        <v>480282174</v>
       </c>
     </row>
     <row r="1762">
@@ -32102,12 +32102,12 @@
         </is>
       </c>
       <c r="D1762" t="n">
-        <v>480573977</v>
+        <v>480496088</v>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1763" t="inlineStr">
         <is>
@@ -32120,7 +32120,7 @@
         </is>
       </c>
       <c r="D1763" t="n">
-        <v>480020761</v>
+        <v>480593104</v>
       </c>
     </row>
     <row r="1764">
@@ -32138,7 +32138,7 @@
         </is>
       </c>
       <c r="D1764" t="n">
-        <v>480148540</v>
+        <v>480089492</v>
       </c>
     </row>
     <row r="1765">
@@ -32156,7 +32156,7 @@
         </is>
       </c>
       <c r="D1765" t="n">
-        <v>480025710</v>
+        <v>480132503</v>
       </c>
     </row>
     <row r="1766">
@@ -32174,7 +32174,7 @@
         </is>
       </c>
       <c r="D1766" t="n">
-        <v>480185903</v>
+        <v>480246512</v>
       </c>
     </row>
     <row r="1767">
@@ -32192,7 +32192,7 @@
         </is>
       </c>
       <c r="D1767" t="n">
-        <v>480400498</v>
+        <v>480209912</v>
       </c>
     </row>
     <row r="1768">
@@ -32210,12 +32210,12 @@
         </is>
       </c>
       <c r="D1768" t="n">
-        <v>480632136</v>
+        <v>480504092</v>
       </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1769" t="inlineStr">
         <is>
@@ -32228,12 +32228,12 @@
         </is>
       </c>
       <c r="D1769" t="n">
-        <v>480463321</v>
+        <v>480319262</v>
       </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1770" t="inlineStr">
         <is>
@@ -32246,12 +32246,12 @@
         </is>
       </c>
       <c r="D1770" t="n">
-        <v>480607291</v>
+        <v>480328610</v>
       </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1771" t="inlineStr">
         <is>
@@ -32264,12 +32264,12 @@
         </is>
       </c>
       <c r="D1771" t="n">
-        <v>480381589</v>
+        <v>480558235</v>
       </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1772" t="inlineStr">
         <is>
@@ -32282,12 +32282,12 @@
         </is>
       </c>
       <c r="D1772" t="n">
-        <v>480270334</v>
+        <v>480426255</v>
       </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1773" t="inlineStr">
         <is>
@@ -32300,12 +32300,12 @@
         </is>
       </c>
       <c r="D1773" t="n">
-        <v>480174896</v>
+        <v>480379099</v>
       </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1774" t="inlineStr">
         <is>
@@ -32318,12 +32318,12 @@
         </is>
       </c>
       <c r="D1774" t="n">
-        <v>480594158</v>
+        <v>480454574</v>
       </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1775" t="inlineStr">
         <is>
@@ -32336,12 +32336,12 @@
         </is>
       </c>
       <c r="D1775" t="n">
-        <v>480156439</v>
+        <v>480098979</v>
       </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1776" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         </is>
       </c>
       <c r="D1776" t="n">
-        <v>480160002</v>
+        <v>480230413</v>
       </c>
     </row>
     <row r="1777">
@@ -32372,7 +32372,7 @@
         </is>
       </c>
       <c r="D1777" t="n">
-        <v>480081387</v>
+        <v>480457674</v>
       </c>
     </row>
     <row r="1778">
@@ -32390,7 +32390,7 @@
         </is>
       </c>
       <c r="D1778" t="n">
-        <v>480441177</v>
+        <v>480351648</v>
       </c>
     </row>
     <row r="1779">
@@ -32408,7 +32408,7 @@
         </is>
       </c>
       <c r="D1779" t="n">
-        <v>480588929</v>
+        <v>480836243</v>
       </c>
     </row>
     <row r="1780">
@@ -32426,7 +32426,7 @@
         </is>
       </c>
       <c r="D1780" t="n">
-        <v>480548829</v>
+        <v>480835923</v>
       </c>
     </row>
     <row r="1781">
@@ -32444,7 +32444,7 @@
         </is>
       </c>
       <c r="D1781" t="n">
-        <v>480745932</v>
+        <v>480532192</v>
       </c>
     </row>
     <row r="1782">
@@ -32462,7 +32462,7 @@
         </is>
       </c>
       <c r="D1782" t="n">
-        <v>480329576</v>
+        <v>480376745</v>
       </c>
     </row>
     <row r="1783">
@@ -32480,7 +32480,7 @@
         </is>
       </c>
       <c r="D1783" t="n">
-        <v>480835027</v>
+        <v>480386036</v>
       </c>
     </row>
     <row r="1784">
@@ -32498,12 +32498,12 @@
         </is>
       </c>
       <c r="D1784" t="n">
-        <v>480255236</v>
+        <v>480157164</v>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1785" t="inlineStr">
         <is>
@@ -32516,12 +32516,12 @@
         </is>
       </c>
       <c r="D1785" t="n">
-        <v>480541557</v>
+        <v>480613385</v>
       </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1786" t="inlineStr">
         <is>
@@ -32534,12 +32534,12 @@
         </is>
       </c>
       <c r="D1786" t="n">
-        <v>480331107</v>
+        <v>480175672</v>
       </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1787" t="inlineStr">
         <is>
@@ -32552,12 +32552,12 @@
         </is>
       </c>
       <c r="D1787" t="n">
-        <v>480615748</v>
+        <v>480076187</v>
       </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1788" t="inlineStr">
         <is>
@@ -32570,12 +32570,12 @@
         </is>
       </c>
       <c r="D1788" t="n">
-        <v>480463368</v>
+        <v>480516169</v>
       </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1789" t="inlineStr">
         <is>
@@ -32588,12 +32588,12 @@
         </is>
       </c>
       <c r="D1789" t="n">
-        <v>480338061</v>
+        <v>480374676</v>
       </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1790" t="inlineStr">
         <is>
@@ -32606,12 +32606,12 @@
         </is>
       </c>
       <c r="D1790" t="n">
-        <v>480248696</v>
+        <v>480534449</v>
       </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1791" t="inlineStr">
         <is>
@@ -32624,12 +32624,12 @@
         </is>
       </c>
       <c r="D1791" t="n">
-        <v>480132503</v>
+        <v>480253199</v>
       </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1792" t="inlineStr">
         <is>
@@ -32642,12 +32642,12 @@
         </is>
       </c>
       <c r="D1792" t="n">
-        <v>480037224</v>
+        <v>480370137</v>
       </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1793" t="inlineStr">
         <is>
@@ -32660,12 +32660,12 @@
         </is>
       </c>
       <c r="D1793" t="n">
-        <v>480231310</v>
+        <v>480210727</v>
       </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1794" t="inlineStr">
         <is>
@@ -32678,12 +32678,12 @@
         </is>
       </c>
       <c r="D1794" t="n">
-        <v>480089492</v>
+        <v>480835001</v>
       </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B1795" t="inlineStr">
         <is>
@@ -32696,12 +32696,12 @@
         </is>
       </c>
       <c r="D1795" t="n">
-        <v>480224906</v>
+        <v>480575437</v>
       </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B1796" t="inlineStr">
         <is>
@@ -32714,12 +32714,12 @@
         </is>
       </c>
       <c r="D1796" t="n">
-        <v>480246512</v>
+        <v>480544560</v>
       </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B1797" t="inlineStr">
         <is>
@@ -32732,12 +32732,12 @@
         </is>
       </c>
       <c r="D1797" t="n">
-        <v>480209912</v>
+        <v>480836279</v>
       </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1798" t="inlineStr">
         <is>
@@ -32750,12 +32750,12 @@
         </is>
       </c>
       <c r="D1798" t="n">
-        <v>480504092</v>
+        <v>480213314</v>
       </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B1799" t="inlineStr">
         <is>
@@ -32768,12 +32768,12 @@
         </is>
       </c>
       <c r="D1799" t="n">
-        <v>480319262</v>
+        <v>480253369</v>
       </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B1800" t="inlineStr">
         <is>
@@ -32786,12 +32786,12 @@
         </is>
       </c>
       <c r="D1800" t="n">
-        <v>480328610</v>
+        <v>480430123</v>
       </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1801" t="inlineStr">
         <is>
@@ -32804,12 +32804,12 @@
         </is>
       </c>
       <c r="D1801" t="n">
-        <v>480496088</v>
+        <v>480333351</v>
       </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1802" t="inlineStr">
         <is>
@@ -32822,12 +32822,12 @@
         </is>
       </c>
       <c r="D1802" t="n">
-        <v>480558235</v>
+        <v>480237891</v>
       </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B1803" t="inlineStr">
         <is>
@@ -32840,12 +32840,12 @@
         </is>
       </c>
       <c r="D1803" t="n">
-        <v>480426255</v>
+        <v>480432083</v>
       </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1804" t="inlineStr">
         <is>
@@ -32858,12 +32858,12 @@
         </is>
       </c>
       <c r="D1804" t="n">
-        <v>480379099</v>
+        <v>480326434</v>
       </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1805" t="inlineStr">
         <is>
@@ -32876,12 +32876,12 @@
         </is>
       </c>
       <c r="D1805" t="n">
-        <v>480454574</v>
+        <v>480331462</v>
       </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B1806" t="inlineStr">
         <is>
@@ -32894,12 +32894,12 @@
         </is>
       </c>
       <c r="D1806" t="n">
-        <v>480098979</v>
+        <v>480341815</v>
       </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1807" t="inlineStr">
         <is>
@@ -32912,12 +32912,12 @@
         </is>
       </c>
       <c r="D1807" t="n">
-        <v>480230413</v>
+        <v>480547539</v>
       </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1808" t="inlineStr">
         <is>
@@ -32930,12 +32930,12 @@
         </is>
       </c>
       <c r="D1808" t="n">
-        <v>480593104</v>
+        <v>480664406</v>
       </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1809" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         </is>
       </c>
       <c r="D1809" t="n">
-        <v>480351648</v>
+        <v>480836331</v>
       </c>
     </row>
     <row r="1810">
@@ -32966,12 +32966,12 @@
         </is>
       </c>
       <c r="D1810" t="n">
-        <v>480836243</v>
+        <v>480354671</v>
       </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1811" t="inlineStr">
         <is>
@@ -32984,12 +32984,12 @@
         </is>
       </c>
       <c r="D1811" t="n">
-        <v>480457674</v>
+        <v>480364276</v>
       </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1812" t="inlineStr">
         <is>
@@ -33002,12 +33002,12 @@
         </is>
       </c>
       <c r="D1812" t="n">
-        <v>480835923</v>
+        <v>480610775</v>
       </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1813" t="inlineStr">
         <is>
@@ -33020,12 +33020,12 @@
         </is>
       </c>
       <c r="D1813" t="n">
-        <v>480532192</v>
+        <v>480336042</v>
       </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1814" t="inlineStr">
         <is>
@@ -33038,12 +33038,12 @@
         </is>
       </c>
       <c r="D1814" t="n">
-        <v>480376745</v>
+        <v>480332756</v>
       </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B1815" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         </is>
       </c>
       <c r="D1815" t="n">
-        <v>480282174</v>
+        <v>480317188</v>
       </c>
     </row>
     <row r="1816">
@@ -33074,7 +33074,7 @@
         </is>
       </c>
       <c r="D1816" t="n">
-        <v>480076187</v>
+        <v>480311806</v>
       </c>
     </row>
     <row r="1817">
@@ -33092,12 +33092,12 @@
         </is>
       </c>
       <c r="D1817" t="n">
-        <v>480516169</v>
+        <v>480168632</v>
       </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1818" t="inlineStr">
         <is>
@@ -33110,12 +33110,12 @@
         </is>
       </c>
       <c r="D1818" t="n">
-        <v>480374676</v>
+        <v>480615748</v>
       </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1819" t="inlineStr">
         <is>
@@ -33128,12 +33128,12 @@
         </is>
       </c>
       <c r="D1819" t="n">
-        <v>480386036</v>
+        <v>480463368</v>
       </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1820" t="inlineStr">
         <is>
@@ -33146,12 +33146,12 @@
         </is>
       </c>
       <c r="D1820" t="n">
-        <v>480213314</v>
+        <v>480338061</v>
       </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1821" t="inlineStr">
         <is>
@@ -33164,12 +33164,12 @@
         </is>
       </c>
       <c r="D1821" t="n">
-        <v>480253369</v>
+        <v>480248696</v>
       </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1822" t="inlineStr">
         <is>
@@ -33182,12 +33182,12 @@
         </is>
       </c>
       <c r="D1822" t="n">
-        <v>480430123</v>
+        <v>480231310</v>
       </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1823" t="inlineStr">
         <is>
@@ -33200,12 +33200,12 @@
         </is>
       </c>
       <c r="D1823" t="n">
-        <v>480333351</v>
+        <v>480037224</v>
       </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1824" t="inlineStr">
         <is>
@@ -33218,12 +33218,12 @@
         </is>
       </c>
       <c r="D1824" t="n">
-        <v>480237891</v>
+        <v>480224906</v>
       </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1825" t="inlineStr">
         <is>
@@ -33236,12 +33236,12 @@
         </is>
       </c>
       <c r="D1825" t="n">
-        <v>480432083</v>
+        <v>480409377</v>
       </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1826" t="inlineStr">
         <is>
@@ -33254,12 +33254,12 @@
         </is>
       </c>
       <c r="D1826" t="n">
-        <v>480326434</v>
+        <v>480417492</v>
       </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1827" t="inlineStr">
         <is>
@@ -33272,12 +33272,12 @@
         </is>
       </c>
       <c r="D1827" t="n">
-        <v>480331462</v>
+        <v>480492789</v>
       </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1828" t="inlineStr">
         <is>
@@ -33290,12 +33290,12 @@
         </is>
       </c>
       <c r="D1828" t="n">
-        <v>480370137</v>
+        <v>480396821</v>
       </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1829" t="inlineStr">
         <is>
@@ -33308,12 +33308,12 @@
         </is>
       </c>
       <c r="D1829" t="n">
-        <v>480210727</v>
+        <v>480158948</v>
       </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1830" t="inlineStr">
         <is>
@@ -33326,12 +33326,12 @@
         </is>
       </c>
       <c r="D1830" t="n">
-        <v>480311806</v>
+        <v>480520852</v>
       </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1831" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         </is>
       </c>
       <c r="D1831" t="n">
-        <v>480157164</v>
+        <v>480332753</v>
       </c>
     </row>
     <row r="1832">
@@ -33362,7 +33362,7 @@
         </is>
       </c>
       <c r="D1832" t="n">
-        <v>480613385</v>
+        <v>480836462</v>
       </c>
     </row>
     <row r="1833">
@@ -33380,7 +33380,7 @@
         </is>
       </c>
       <c r="D1833" t="n">
-        <v>480175672</v>
+        <v>480424091</v>
       </c>
     </row>
     <row r="1834">
@@ -33398,7 +33398,7 @@
         </is>
       </c>
       <c r="D1834" t="n">
-        <v>480253199</v>
+        <v>480835496</v>
       </c>
     </row>
     <row r="1835">
@@ -33416,7 +33416,7 @@
         </is>
       </c>
       <c r="D1835" t="n">
-        <v>480534449</v>
+        <v>480835534</v>
       </c>
     </row>
     <row r="1836">
@@ -33434,7 +33434,7 @@
         </is>
       </c>
       <c r="D1836" t="n">
-        <v>480382643</v>
+        <v>480836328</v>
       </c>
     </row>
     <row r="1837">
@@ -33452,7 +33452,7 @@
         </is>
       </c>
       <c r="D1837" t="n">
-        <v>480509223</v>
+        <v>480382643</v>
       </c>
     </row>
     <row r="1838">
@@ -33470,7 +33470,7 @@
         </is>
       </c>
       <c r="D1838" t="n">
-        <v>480836165</v>
+        <v>480509223</v>
       </c>
     </row>
     <row r="1839">
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="D1840" t="n">
-        <v>480459056</v>
+        <v>480835528</v>
       </c>
     </row>
     <row r="1841">
@@ -33524,12 +33524,12 @@
         </is>
       </c>
       <c r="D1841" t="n">
-        <v>480217423</v>
+        <v>480499114</v>
       </c>
     </row>
     <row r="1842">
       <c r="A1842" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1842" t="inlineStr">
         <is>
@@ -33542,12 +33542,12 @@
         </is>
       </c>
       <c r="D1842" t="n">
-        <v>480020415</v>
+        <v>480209884</v>
       </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1843" t="inlineStr">
         <is>
@@ -33560,12 +33560,12 @@
         </is>
       </c>
       <c r="D1843" t="n">
-        <v>480835528</v>
+        <v>480394717</v>
       </c>
     </row>
     <row r="1844">
       <c r="A1844" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1844" t="inlineStr">
         <is>
@@ -33578,12 +33578,12 @@
         </is>
       </c>
       <c r="D1844" t="n">
-        <v>480836462</v>
+        <v>480631773</v>
       </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1845" t="inlineStr">
         <is>
@@ -33596,12 +33596,12 @@
         </is>
       </c>
       <c r="D1845" t="n">
-        <v>480424091</v>
+        <v>480630615</v>
       </c>
     </row>
     <row r="1846">
       <c r="A1846" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1846" t="inlineStr">
         <is>
@@ -33614,12 +33614,12 @@
         </is>
       </c>
       <c r="D1846" t="n">
-        <v>480835496</v>
+        <v>480258839</v>
       </c>
     </row>
     <row r="1847">
       <c r="A1847" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1847" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         </is>
       </c>
       <c r="D1847" t="n">
-        <v>480341815</v>
+        <v>480529418</v>
       </c>
     </row>
     <row r="1848">
@@ -33650,12 +33650,12 @@
         </is>
       </c>
       <c r="D1848" t="n">
-        <v>480168632</v>
+        <v>480836165</v>
       </c>
     </row>
     <row r="1849">
       <c r="A1849" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1849" t="inlineStr">
         <is>
@@ -33668,12 +33668,12 @@
         </is>
       </c>
       <c r="D1849" t="n">
-        <v>480317188</v>
+        <v>480459056</v>
       </c>
     </row>
     <row r="1850">
       <c r="A1850" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1850" t="inlineStr">
         <is>
@@ -33686,12 +33686,12 @@
         </is>
       </c>
       <c r="D1850" t="n">
-        <v>480836331</v>
+        <v>480217423</v>
       </c>
     </row>
     <row r="1851">
       <c r="A1851" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1851" t="inlineStr">
         <is>
@@ -33704,12 +33704,12 @@
         </is>
       </c>
       <c r="D1851" t="n">
-        <v>480664406</v>
+        <v>480020415</v>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1852" t="inlineStr">
         <is>
@@ -33722,12 +33722,12 @@
         </is>
       </c>
       <c r="D1852" t="n">
-        <v>480364276</v>
+        <v>480580688</v>
       </c>
     </row>
     <row r="1853">
       <c r="A1853" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1853" t="inlineStr">
         <is>
@@ -33740,12 +33740,12 @@
         </is>
       </c>
       <c r="D1853" t="n">
-        <v>480575437</v>
+        <v>480533116</v>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1854" t="inlineStr">
         <is>
@@ -33758,12 +33758,12 @@
         </is>
       </c>
       <c r="D1854" t="n">
-        <v>480544560</v>
+        <v>480462469</v>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
@@ -33776,12 +33776,12 @@
         </is>
       </c>
       <c r="D1855" t="n">
-        <v>480836279</v>
+        <v>480470009</v>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1856" t="inlineStr">
         <is>
@@ -33794,12 +33794,12 @@
         </is>
       </c>
       <c r="D1856" t="n">
-        <v>480547539</v>
+        <v>480614794</v>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1857" t="inlineStr">
         <is>
@@ -33812,12 +33812,12 @@
         </is>
       </c>
       <c r="D1857" t="n">
-        <v>480332756</v>
+        <v>480093728</v>
       </c>
     </row>
     <row r="1858">
       <c r="A1858" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1858" t="inlineStr">
         <is>
@@ -33830,12 +33830,12 @@
         </is>
       </c>
       <c r="D1858" t="n">
-        <v>480835001</v>
+        <v>480498329</v>
       </c>
     </row>
     <row r="1859">
       <c r="A1859" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1859" t="inlineStr">
         <is>
@@ -33848,12 +33848,12 @@
         </is>
       </c>
       <c r="D1859" t="n">
-        <v>480354671</v>
+        <v>480117856</v>
       </c>
     </row>
     <row r="1860">
       <c r="A1860" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1860" t="inlineStr">
         <is>
@@ -33866,12 +33866,12 @@
         </is>
       </c>
       <c r="D1860" t="n">
-        <v>480610775</v>
+        <v>480121457</v>
       </c>
     </row>
     <row r="1861">
       <c r="A1861" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1861" t="inlineStr">
         <is>
@@ -33884,12 +33884,12 @@
         </is>
       </c>
       <c r="D1861" t="n">
-        <v>480336042</v>
+        <v>480159191</v>
       </c>
     </row>
     <row r="1862">
       <c r="A1862" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1862" t="inlineStr">
         <is>
@@ -33902,12 +33902,12 @@
         </is>
       </c>
       <c r="D1862" t="n">
-        <v>480835534</v>
+        <v>480437903</v>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1863" t="inlineStr">
         <is>
@@ -33920,12 +33920,12 @@
         </is>
       </c>
       <c r="D1863" t="n">
-        <v>480836328</v>
+        <v>480217560</v>
       </c>
     </row>
     <row r="1864">
       <c r="A1864" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1864" t="inlineStr">
         <is>
@@ -33938,7 +33938,7 @@
         </is>
       </c>
       <c r="D1864" t="n">
-        <v>480499114</v>
+        <v>480636122</v>
       </c>
     </row>
     <row r="1865">
@@ -33956,7 +33956,7 @@
         </is>
       </c>
       <c r="D1865" t="n">
-        <v>480209884</v>
+        <v>480510977</v>
       </c>
     </row>
     <row r="1866">
@@ -33974,7 +33974,7 @@
         </is>
       </c>
       <c r="D1866" t="n">
-        <v>480433195</v>
+        <v>480330020</v>
       </c>
     </row>
     <row r="1867">
@@ -33992,7 +33992,7 @@
         </is>
       </c>
       <c r="D1867" t="n">
-        <v>480276875</v>
+        <v>480762139</v>
       </c>
     </row>
     <row r="1868">
@@ -34010,7 +34010,7 @@
         </is>
       </c>
       <c r="D1868" t="n">
-        <v>480462469</v>
+        <v>480276875</v>
       </c>
     </row>
     <row r="1869">
@@ -34028,7 +34028,7 @@
         </is>
       </c>
       <c r="D1869" t="n">
-        <v>480470009</v>
+        <v>480252761</v>
       </c>
     </row>
     <row r="1870">
@@ -34046,7 +34046,7 @@
         </is>
       </c>
       <c r="D1870" t="n">
-        <v>480614794</v>
+        <v>480463453</v>
       </c>
     </row>
     <row r="1871">
@@ -34064,7 +34064,7 @@
         </is>
       </c>
       <c r="D1871" t="n">
-        <v>480463453</v>
+        <v>480287672</v>
       </c>
     </row>
     <row r="1872">
@@ -34082,7 +34082,7 @@
         </is>
       </c>
       <c r="D1872" t="n">
-        <v>480093728</v>
+        <v>480526854</v>
       </c>
     </row>
     <row r="1873">
@@ -34100,7 +34100,7 @@
         </is>
       </c>
       <c r="D1873" t="n">
-        <v>480498329</v>
+        <v>480511251</v>
       </c>
     </row>
     <row r="1874">
@@ -34118,7 +34118,7 @@
         </is>
       </c>
       <c r="D1874" t="n">
-        <v>480394717</v>
+        <v>480433195</v>
       </c>
     </row>
     <row r="1875">
@@ -34136,7 +34136,7 @@
         </is>
       </c>
       <c r="D1875" t="n">
-        <v>480631773</v>
+        <v>480375827</v>
       </c>
     </row>
     <row r="1876">
@@ -34154,7 +34154,7 @@
         </is>
       </c>
       <c r="D1876" t="n">
-        <v>480287672</v>
+        <v>480181066</v>
       </c>
     </row>
     <row r="1877">
@@ -34172,12 +34172,12 @@
         </is>
       </c>
       <c r="D1877" t="n">
-        <v>480437903</v>
+        <v>480231267</v>
       </c>
     </row>
     <row r="1878">
       <c r="A1878" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B1878" t="inlineStr">
         <is>
@@ -34190,12 +34190,12 @@
         </is>
       </c>
       <c r="D1878" t="n">
-        <v>480217560</v>
+        <v>480507848</v>
       </c>
     </row>
     <row r="1879">
       <c r="A1879" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1879" t="inlineStr">
         <is>
@@ -34208,12 +34208,12 @@
         </is>
       </c>
       <c r="D1879" t="n">
-        <v>480580688</v>
+        <v>480396438</v>
       </c>
     </row>
     <row r="1880">
       <c r="A1880" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1880" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="D1880" t="n">
-        <v>480511251</v>
+        <v>480059372</v>
       </c>
     </row>
     <row r="1881">
@@ -34244,7 +34244,7 @@
         </is>
       </c>
       <c r="D1881" t="n">
-        <v>480059372</v>
+        <v>480256225</v>
       </c>
     </row>
     <row r="1882">
@@ -34267,7 +34267,7 @@
     </row>
     <row r="1883">
       <c r="A1883" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
@@ -34280,12 +34280,12 @@
         </is>
       </c>
       <c r="D1883" t="n">
-        <v>480117856</v>
+        <v>480835027</v>
       </c>
     </row>
     <row r="1884">
       <c r="A1884" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1884" t="inlineStr">
         <is>
@@ -34298,12 +34298,12 @@
         </is>
       </c>
       <c r="D1884" t="n">
-        <v>480121457</v>
+        <v>480381589</v>
       </c>
     </row>
     <row r="1885">
       <c r="A1885" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1885" t="inlineStr">
         <is>
@@ -34316,12 +34316,12 @@
         </is>
       </c>
       <c r="D1885" t="n">
-        <v>480159191</v>
+        <v>480270334</v>
       </c>
     </row>
     <row r="1886">
       <c r="A1886" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1886" t="inlineStr">
         <is>
@@ -34334,12 +34334,12 @@
         </is>
       </c>
       <c r="D1886" t="n">
-        <v>480636122</v>
+        <v>480174896</v>
       </c>
     </row>
     <row r="1887">
       <c r="A1887" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1887" t="inlineStr">
         <is>
@@ -34352,12 +34352,12 @@
         </is>
       </c>
       <c r="D1887" t="n">
-        <v>480630615</v>
+        <v>480594158</v>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1888" t="inlineStr">
         <is>
@@ -34370,12 +34370,12 @@
         </is>
       </c>
       <c r="D1888" t="n">
-        <v>480330020</v>
+        <v>480156439</v>
       </c>
     </row>
     <row r="1889">
       <c r="A1889" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1889" t="inlineStr">
         <is>
@@ -34388,7 +34388,7 @@
         </is>
       </c>
       <c r="D1889" t="n">
-        <v>480526854</v>
+        <v>480160002</v>
       </c>
     </row>
     <row r="1890">
@@ -34406,7 +34406,7 @@
         </is>
       </c>
       <c r="D1890" t="n">
-        <v>480258839</v>
+        <v>480541557</v>
       </c>
     </row>
     <row r="1891">
@@ -34424,12 +34424,12 @@
         </is>
       </c>
       <c r="D1891" t="n">
-        <v>480529418</v>
+        <v>480331107</v>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1892" t="inlineStr">
         <is>
@@ -34442,12 +34442,12 @@
         </is>
       </c>
       <c r="D1892" t="n">
-        <v>480510977</v>
+        <v>480329576</v>
       </c>
     </row>
     <row r="1893">
       <c r="A1893" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1893" t="inlineStr">
         <is>
@@ -34460,12 +34460,12 @@
         </is>
       </c>
       <c r="D1893" t="n">
-        <v>480375827</v>
+        <v>480463321</v>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
@@ -34478,12 +34478,12 @@
         </is>
       </c>
       <c r="D1894" t="n">
-        <v>480762139</v>
+        <v>480607291</v>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1895" t="inlineStr">
         <is>
@@ -34496,12 +34496,12 @@
         </is>
       </c>
       <c r="D1895" t="n">
-        <v>480533116</v>
+        <v>480255236</v>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
@@ -34514,12 +34514,12 @@
         </is>
       </c>
       <c r="D1896" t="n">
-        <v>480181066</v>
+        <v>480081387</v>
       </c>
     </row>
     <row r="1897">
       <c r="A1897" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
@@ -34532,12 +34532,12 @@
         </is>
       </c>
       <c r="D1897" t="n">
-        <v>480231267</v>
+        <v>480441177</v>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1898" t="inlineStr">
         <is>
@@ -34550,12 +34550,12 @@
         </is>
       </c>
       <c r="D1898" t="n">
-        <v>480252761</v>
+        <v>480588929</v>
       </c>
     </row>
     <row r="1899">
       <c r="A1899" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1899" t="inlineStr">
         <is>
@@ -34568,12 +34568,12 @@
         </is>
       </c>
       <c r="D1899" t="n">
-        <v>480507848</v>
+        <v>480548829</v>
       </c>
     </row>
     <row r="1900">
       <c r="A1900" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1900" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         </is>
       </c>
       <c r="D1900" t="n">
-        <v>480409377</v>
+        <v>480745932</v>
       </c>
     </row>
     <row r="1901">
@@ -34604,7 +34604,7 @@
         </is>
       </c>
       <c r="D1901" t="n">
-        <v>480417492</v>
+        <v>480020761</v>
       </c>
     </row>
     <row r="1902">
@@ -34622,7 +34622,7 @@
         </is>
       </c>
       <c r="D1902" t="n">
-        <v>480492789</v>
+        <v>480148540</v>
       </c>
     </row>
     <row r="1903">
@@ -34640,7 +34640,7 @@
         </is>
       </c>
       <c r="D1903" t="n">
-        <v>480396821</v>
+        <v>480025710</v>
       </c>
     </row>
     <row r="1904">
@@ -34658,7 +34658,7 @@
         </is>
       </c>
       <c r="D1904" t="n">
-        <v>480158948</v>
+        <v>480185903</v>
       </c>
     </row>
     <row r="1905">
@@ -34676,7 +34676,7 @@
         </is>
       </c>
       <c r="D1905" t="n">
-        <v>480520852</v>
+        <v>480400498</v>
       </c>
     </row>
     <row r="1906">
@@ -34694,12 +34694,12 @@
         </is>
       </c>
       <c r="D1906" t="n">
-        <v>480332753</v>
+        <v>480344523</v>
       </c>
     </row>
     <row r="1907">
       <c r="A1907" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1907" t="inlineStr">
         <is>
@@ -34712,12 +34712,12 @@
         </is>
       </c>
       <c r="D1907" t="n">
-        <v>480396438</v>
+        <v>480161313</v>
       </c>
     </row>
     <row r="1908">
       <c r="A1908" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1908" t="inlineStr">
         <is>
@@ -34730,7 +34730,7 @@
         </is>
       </c>
       <c r="D1908" t="n">
-        <v>480256225</v>
+        <v>480632136</v>
       </c>
     </row>
     <row r="1909">
@@ -34748,7 +34748,7 @@
         </is>
       </c>
       <c r="D1909" t="n">
-        <v>480344523</v>
+        <v>480573977</v>
       </c>
     </row>
     <row r="1910">
@@ -34766,7 +34766,7 @@
         </is>
       </c>
       <c r="D1910" t="n">
-        <v>480161313</v>
+        <v>480393380</v>
       </c>
     </row>
     <row r="1911">
@@ -34780,11 +34780,11 @@
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D1911" t="n">
-        <v>480393380</v>
+        <v>480009786</v>
       </c>
     </row>
     <row r="1912">
@@ -34969,7 +34969,7 @@
     </row>
     <row r="1922">
       <c r="A1922" s="2" t="n">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="B1922" t="inlineStr">
         <is>
@@ -34978,16 +34978,16 @@
       </c>
       <c r="C1922" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D1922" t="n">
-        <v>476469503</v>
+        <v>476658630</v>
       </c>
     </row>
     <row r="1923">
       <c r="A1923" s="2" t="n">
-        <v>45783</v>
+        <v>45722</v>
       </c>
       <c r="B1923" t="inlineStr">
         <is>
@@ -34996,11 +34996,11 @@
       </c>
       <c r="C1923" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D1923" t="n">
-        <v>476658630</v>
+        <v>476469503</v>
       </c>
     </row>
     <row r="1924">
@@ -35023,7 +35023,7 @@
     </row>
     <row r="1925">
       <c r="A1925" s="2" t="n">
-        <v>45722</v>
+        <v>45967</v>
       </c>
       <c r="B1925" t="inlineStr">
         <is>
@@ -35032,16 +35032,16 @@
       </c>
       <c r="C1925" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D1925" t="n">
-        <v>477455583</v>
+        <v>477248731</v>
       </c>
     </row>
     <row r="1926">
       <c r="A1926" s="2" t="n">
-        <v>45906</v>
+        <v>45832</v>
       </c>
       <c r="B1926" t="inlineStr">
         <is>
@@ -35054,12 +35054,12 @@
         </is>
       </c>
       <c r="D1926" t="n">
-        <v>477645858</v>
+        <v>477633386</v>
       </c>
     </row>
     <row r="1927">
       <c r="A1927" s="2" t="n">
-        <v>45833</v>
+        <v>45906</v>
       </c>
       <c r="B1927" t="inlineStr">
         <is>
@@ -35072,12 +35072,12 @@
         </is>
       </c>
       <c r="D1927" t="n">
-        <v>477180271</v>
+        <v>477645858</v>
       </c>
     </row>
     <row r="1928">
       <c r="A1928" s="2" t="n">
-        <v>45936</v>
+        <v>45833</v>
       </c>
       <c r="B1928" t="inlineStr">
         <is>
@@ -35090,12 +35090,12 @@
         </is>
       </c>
       <c r="D1928" t="n">
-        <v>477903713</v>
+        <v>477180271</v>
       </c>
     </row>
     <row r="1929">
       <c r="A1929" s="2" t="n">
-        <v>45967</v>
+        <v>45936</v>
       </c>
       <c r="B1929" t="inlineStr">
         <is>
@@ -35104,16 +35104,16 @@
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D1929" t="n">
-        <v>477248731</v>
+        <v>477903713</v>
       </c>
     </row>
     <row r="1930">
       <c r="A1930" s="2" t="n">
-        <v>45832</v>
+        <v>45722</v>
       </c>
       <c r="B1930" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         </is>
       </c>
       <c r="D1930" t="n">
-        <v>477633386</v>
+        <v>477455583</v>
       </c>
     </row>
     <row r="1931">
@@ -35198,7 +35198,7 @@
         </is>
       </c>
       <c r="D1934" t="n">
-        <v>479297900</v>
+        <v>479607711</v>
       </c>
     </row>
     <row r="1935">
@@ -35216,12 +35216,12 @@
         </is>
       </c>
       <c r="D1935" t="n">
-        <v>479926586</v>
+        <v>479222842</v>
       </c>
     </row>
     <row r="1936">
       <c r="A1936" s="2" t="n">
-        <v>45828</v>
+        <v>45936</v>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
@@ -35234,7 +35234,7 @@
         </is>
       </c>
       <c r="D1936" t="n">
-        <v>479607711</v>
+        <v>478821156</v>
       </c>
     </row>
     <row r="1937">
@@ -35252,12 +35252,12 @@
         </is>
       </c>
       <c r="D1937" t="n">
-        <v>479929831</v>
+        <v>479332891</v>
       </c>
     </row>
     <row r="1938">
       <c r="A1938" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
@@ -35270,12 +35270,12 @@
         </is>
       </c>
       <c r="D1938" t="n">
-        <v>479199633</v>
+        <v>478688308</v>
       </c>
     </row>
     <row r="1939">
       <c r="A1939" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
@@ -35288,12 +35288,12 @@
         </is>
       </c>
       <c r="D1939" t="n">
-        <v>479224078</v>
+        <v>479862853</v>
       </c>
     </row>
     <row r="1940">
       <c r="A1940" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
@@ -35306,12 +35306,12 @@
         </is>
       </c>
       <c r="D1940" t="n">
-        <v>479268125</v>
+        <v>479396580</v>
       </c>
     </row>
     <row r="1941">
       <c r="A1941" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
@@ -35324,12 +35324,12 @@
         </is>
       </c>
       <c r="D1941" t="n">
-        <v>479768420</v>
+        <v>479638092</v>
       </c>
     </row>
     <row r="1942">
       <c r="A1942" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
@@ -35342,12 +35342,12 @@
         </is>
       </c>
       <c r="D1942" t="n">
-        <v>479831737</v>
+        <v>479842895</v>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
@@ -35360,12 +35360,12 @@
         </is>
       </c>
       <c r="D1943" t="n">
-        <v>479063963</v>
+        <v>479991755</v>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
@@ -35378,12 +35378,12 @@
         </is>
       </c>
       <c r="D1944" t="n">
-        <v>479677237</v>
+        <v>479046767</v>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
@@ -35396,12 +35396,12 @@
         </is>
       </c>
       <c r="D1945" t="n">
-        <v>479989279</v>
+        <v>479550929</v>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1946" t="inlineStr">
         <is>
@@ -35414,7 +35414,7 @@
         </is>
       </c>
       <c r="D1946" t="n">
-        <v>479944543</v>
+        <v>479171355</v>
       </c>
     </row>
     <row r="1947">
@@ -35432,12 +35432,12 @@
         </is>
       </c>
       <c r="D1947" t="n">
-        <v>478773384</v>
+        <v>479999960</v>
       </c>
     </row>
     <row r="1948">
       <c r="A1948" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
@@ -35450,12 +35450,12 @@
         </is>
       </c>
       <c r="D1948" t="n">
-        <v>479451881</v>
+        <v>479832877</v>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
@@ -35468,12 +35468,12 @@
         </is>
       </c>
       <c r="D1949" t="n">
-        <v>479835603</v>
+        <v>479759595</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
@@ -35486,12 +35486,12 @@
         </is>
       </c>
       <c r="D1950" t="n">
-        <v>479943321</v>
+        <v>479396497</v>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
@@ -35504,12 +35504,12 @@
         </is>
       </c>
       <c r="D1951" t="n">
-        <v>479903237</v>
+        <v>479214004</v>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
@@ -35522,12 +35522,12 @@
         </is>
       </c>
       <c r="D1952" t="n">
-        <v>479431261</v>
+        <v>479909668</v>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
@@ -35540,12 +35540,12 @@
         </is>
       </c>
       <c r="D1953" t="n">
-        <v>479822737</v>
+        <v>479557061</v>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
@@ -35558,12 +35558,12 @@
         </is>
       </c>
       <c r="D1954" t="n">
-        <v>479981950</v>
+        <v>478979139</v>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
@@ -35576,12 +35576,12 @@
         </is>
       </c>
       <c r="D1955" t="n">
-        <v>479122205</v>
+        <v>479656120</v>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" s="2" t="n">
-        <v>45825</v>
+        <v>45828</v>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
@@ -35590,16 +35590,16 @@
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D1956" t="n">
-        <v>479799052</v>
+        <v>479978289</v>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" s="2" t="n">
-        <v>45825</v>
+        <v>45833</v>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
@@ -35608,16 +35608,16 @@
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D1957" t="n">
-        <v>479285354</v>
+        <v>479530441</v>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" s="2" t="n">
-        <v>45824</v>
+        <v>45828</v>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
@@ -35626,16 +35626,16 @@
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D1958" t="n">
-        <v>479604372</v>
+        <v>479641392</v>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
@@ -35648,7 +35648,7 @@
         </is>
       </c>
       <c r="D1959" t="n">
-        <v>479944152</v>
+        <v>479863909</v>
       </c>
     </row>
     <row r="1960">
@@ -35666,12 +35666,12 @@
         </is>
       </c>
       <c r="D1960" t="n">
-        <v>479222842</v>
+        <v>479872843</v>
       </c>
     </row>
     <row r="1961">
       <c r="A1961" s="2" t="n">
-        <v>45936</v>
+        <v>45828</v>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
@@ -35684,12 +35684,12 @@
         </is>
       </c>
       <c r="D1961" t="n">
-        <v>478821156</v>
+        <v>479814381</v>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
@@ -35702,12 +35702,12 @@
         </is>
       </c>
       <c r="D1962" t="n">
-        <v>479332891</v>
+        <v>479919607</v>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
@@ -35720,7 +35720,7 @@
         </is>
       </c>
       <c r="D1963" t="n">
-        <v>478688308</v>
+        <v>479698893</v>
       </c>
     </row>
     <row r="1964">
@@ -35738,7 +35738,7 @@
         </is>
       </c>
       <c r="D1964" t="n">
-        <v>479214004</v>
+        <v>479361002</v>
       </c>
     </row>
     <row r="1965">
@@ -35756,7 +35756,7 @@
         </is>
       </c>
       <c r="D1965" t="n">
-        <v>479909668</v>
+        <v>479956383</v>
       </c>
     </row>
     <row r="1966">
@@ -35774,7 +35774,7 @@
         </is>
       </c>
       <c r="D1966" t="n">
-        <v>479557061</v>
+        <v>479151522</v>
       </c>
     </row>
     <row r="1967">
@@ -35792,12 +35792,12 @@
         </is>
       </c>
       <c r="D1967" t="n">
-        <v>479550929</v>
+        <v>479925086</v>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
@@ -35810,12 +35810,12 @@
         </is>
       </c>
       <c r="D1968" t="n">
-        <v>479171355</v>
+        <v>479172323</v>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" s="2" t="n">
-        <v>45832</v>
+        <v>45821</v>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
@@ -35828,12 +35828,12 @@
         </is>
       </c>
       <c r="D1969" t="n">
-        <v>479999960</v>
+        <v>478893930</v>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" s="2" t="n">
-        <v>45833</v>
+        <v>45825</v>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
@@ -35842,16 +35842,16 @@
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D1970" t="n">
-        <v>479530441</v>
+        <v>479367310</v>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" s="2" t="n">
-        <v>45828</v>
+        <v>45826</v>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
@@ -35860,16 +35860,16 @@
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D1971" t="n">
-        <v>479863909</v>
+        <v>479694891</v>
       </c>
     </row>
     <row r="1972">
       <c r="A1972" s="2" t="n">
-        <v>45828</v>
+        <v>45826</v>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
@@ -35878,16 +35878,16 @@
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D1972" t="n">
-        <v>479872843</v>
+        <v>479732412</v>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" s="2" t="n">
-        <v>45828</v>
+        <v>45824</v>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         </is>
       </c>
       <c r="D1973" t="n">
-        <v>479814381</v>
+        <v>479251806</v>
       </c>
     </row>
     <row r="1974">
@@ -35918,7 +35918,7 @@
         </is>
       </c>
       <c r="D1974" t="n">
-        <v>478979139</v>
+        <v>479297900</v>
       </c>
     </row>
     <row r="1975">
@@ -35936,7 +35936,7 @@
         </is>
       </c>
       <c r="D1975" t="n">
-        <v>479656120</v>
+        <v>479926586</v>
       </c>
     </row>
     <row r="1976">
@@ -35954,12 +35954,12 @@
         </is>
       </c>
       <c r="D1976" t="n">
-        <v>479641392</v>
+        <v>479929831</v>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
@@ -35972,12 +35972,12 @@
         </is>
       </c>
       <c r="D1977" t="n">
-        <v>479172323</v>
+        <v>479199633</v>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
@@ -35990,12 +35990,12 @@
         </is>
       </c>
       <c r="D1978" t="n">
-        <v>479978289</v>
+        <v>479224078</v>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
@@ -36008,12 +36008,12 @@
         </is>
       </c>
       <c r="D1979" t="n">
-        <v>479862853</v>
+        <v>479268125</v>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
@@ -36026,12 +36026,12 @@
         </is>
       </c>
       <c r="D1980" t="n">
-        <v>479396580</v>
+        <v>479831737</v>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
@@ -36044,12 +36044,12 @@
         </is>
       </c>
       <c r="D1981" t="n">
-        <v>479638092</v>
+        <v>479768420</v>
       </c>
     </row>
     <row r="1982">
       <c r="A1982" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
@@ -36062,12 +36062,12 @@
         </is>
       </c>
       <c r="D1982" t="n">
-        <v>479842895</v>
+        <v>479063963</v>
       </c>
     </row>
     <row r="1983">
       <c r="A1983" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
@@ -36080,12 +36080,12 @@
         </is>
       </c>
       <c r="D1983" t="n">
-        <v>479991755</v>
+        <v>479677237</v>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
@@ -36098,12 +36098,12 @@
         </is>
       </c>
       <c r="D1984" t="n">
-        <v>479046767</v>
+        <v>479989279</v>
       </c>
     </row>
     <row r="1985">
       <c r="A1985" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
@@ -36116,12 +36116,12 @@
         </is>
       </c>
       <c r="D1985" t="n">
-        <v>479832877</v>
+        <v>479944543</v>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
@@ -36134,12 +36134,12 @@
         </is>
       </c>
       <c r="D1986" t="n">
-        <v>479759595</v>
+        <v>479822737</v>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
@@ -36152,12 +36152,12 @@
         </is>
       </c>
       <c r="D1987" t="n">
-        <v>479396497</v>
+        <v>479981950</v>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
@@ -36170,12 +36170,12 @@
         </is>
       </c>
       <c r="D1988" t="n">
-        <v>479919607</v>
+        <v>478773384</v>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
@@ -36188,12 +36188,12 @@
         </is>
       </c>
       <c r="D1989" t="n">
-        <v>479698893</v>
+        <v>479835603</v>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
@@ -36206,12 +36206,12 @@
         </is>
       </c>
       <c r="D1990" t="n">
-        <v>479361002</v>
+        <v>479943321</v>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
@@ -36224,12 +36224,12 @@
         </is>
       </c>
       <c r="D1991" t="n">
-        <v>479956383</v>
+        <v>479903237</v>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
@@ -36242,12 +36242,12 @@
         </is>
       </c>
       <c r="D1992" t="n">
-        <v>479151522</v>
+        <v>479431261</v>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" s="2" t="n">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
@@ -36260,12 +36260,12 @@
         </is>
       </c>
       <c r="D1993" t="n">
-        <v>479925086</v>
+        <v>479122205</v>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" s="2" t="n">
-        <v>45824</v>
+        <v>45832</v>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
@@ -36278,12 +36278,12 @@
         </is>
       </c>
       <c r="D1994" t="n">
-        <v>479251806</v>
+        <v>479451881</v>
       </c>
     </row>
     <row r="1995">
       <c r="A1995" s="2" t="n">
-        <v>45826</v>
+        <v>45824</v>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
@@ -36296,12 +36296,12 @@
         </is>
       </c>
       <c r="D1995" t="n">
-        <v>479732412</v>
+        <v>479604372</v>
       </c>
     </row>
     <row r="1996">
       <c r="A1996" s="2" t="n">
-        <v>45826</v>
+        <v>45825</v>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
@@ -36314,12 +36314,12 @@
         </is>
       </c>
       <c r="D1996" t="n">
-        <v>479694891</v>
+        <v>479285354</v>
       </c>
     </row>
     <row r="1997">
       <c r="A1997" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
@@ -36328,16 +36328,16 @@
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D1997" t="n">
-        <v>478893930</v>
+        <v>479799052</v>
       </c>
     </row>
     <row r="1998">
       <c r="A1998" s="2" t="n">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
@@ -36346,11 +36346,11 @@
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D1998" t="n">
-        <v>479367310</v>
+        <v>479944152</v>
       </c>
     </row>
     <row r="1999">
@@ -39973,7 +39973,7 @@
     </row>
     <row r="2200">
       <c r="A2200" s="2" t="n">
-        <v>45807</v>
+        <v>45997</v>
       </c>
       <c r="B2200" t="inlineStr">
         <is>
@@ -39986,12 +39986,12 @@
         </is>
       </c>
       <c r="D2200" t="n">
-        <v>473941601</v>
+        <v>472406784</v>
       </c>
     </row>
     <row r="2201">
       <c r="A2201" s="2" t="n">
-        <v>45997</v>
+        <v>45807</v>
       </c>
       <c r="B2201" t="inlineStr">
         <is>
@@ -40004,7 +40004,7 @@
         </is>
       </c>
       <c r="D2201" t="n">
-        <v>472406784</v>
+        <v>473941601</v>
       </c>
     </row>
     <row r="2202">
@@ -40076,7 +40076,7 @@
         </is>
       </c>
       <c r="D2205" t="n">
-        <v>476054012</v>
+        <v>476998837</v>
       </c>
     </row>
     <row r="2206">
@@ -40094,7 +40094,7 @@
         </is>
       </c>
       <c r="D2206" t="n">
-        <v>476998837</v>
+        <v>476054012</v>
       </c>
     </row>
     <row r="2207">
@@ -43789,7 +43789,7 @@
     </row>
     <row r="2412">
       <c r="A2412" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
@@ -43802,12 +43802,12 @@
         </is>
       </c>
       <c r="D2412" t="n">
-        <v>480668488</v>
+        <v>480443561</v>
       </c>
     </row>
     <row r="2413">
       <c r="A2413" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
@@ -43820,12 +43820,12 @@
         </is>
       </c>
       <c r="D2413" t="n">
-        <v>480755475</v>
+        <v>480478491</v>
       </c>
     </row>
     <row r="2414">
       <c r="A2414" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2414" t="inlineStr">
         <is>
@@ -43838,12 +43838,12 @@
         </is>
       </c>
       <c r="D2414" t="n">
-        <v>481061344</v>
+        <v>480460869</v>
       </c>
     </row>
     <row r="2415">
       <c r="A2415" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
@@ -43856,12 +43856,12 @@
         </is>
       </c>
       <c r="D2415" t="n">
-        <v>480898441</v>
+        <v>480660280</v>
       </c>
     </row>
     <row r="2416">
       <c r="A2416" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2416" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         </is>
       </c>
       <c r="D2416" t="n">
-        <v>480755951</v>
+        <v>480616845</v>
       </c>
     </row>
     <row r="2417">
@@ -43892,7 +43892,7 @@
         </is>
       </c>
       <c r="D2417" t="n">
-        <v>480789954</v>
+        <v>480687122</v>
       </c>
     </row>
     <row r="2418">
@@ -43910,7 +43910,7 @@
         </is>
       </c>
       <c r="D2418" t="n">
-        <v>480712026</v>
+        <v>480586425</v>
       </c>
     </row>
     <row r="2419">
@@ -43928,7 +43928,7 @@
         </is>
       </c>
       <c r="D2419" t="n">
-        <v>480527110</v>
+        <v>480853848</v>
       </c>
     </row>
     <row r="2420">
@@ -43946,12 +43946,12 @@
         </is>
       </c>
       <c r="D2420" t="n">
-        <v>480735019</v>
+        <v>480691441</v>
       </c>
     </row>
     <row r="2421">
       <c r="A2421" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2421" t="inlineStr">
         <is>
@@ -43964,12 +43964,12 @@
         </is>
       </c>
       <c r="D2421" t="n">
-        <v>480344372</v>
+        <v>480481347</v>
       </c>
     </row>
     <row r="2422">
       <c r="A2422" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2422" t="inlineStr">
         <is>
@@ -43982,12 +43982,12 @@
         </is>
       </c>
       <c r="D2422" t="n">
-        <v>480898318</v>
+        <v>480724313</v>
       </c>
     </row>
     <row r="2423">
       <c r="A2423" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2423" t="inlineStr">
         <is>
@@ -44000,12 +44000,12 @@
         </is>
       </c>
       <c r="D2423" t="n">
-        <v>480690971</v>
+        <v>480393634</v>
       </c>
     </row>
     <row r="2424">
       <c r="A2424" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2424" t="inlineStr">
         <is>
@@ -44018,12 +44018,12 @@
         </is>
       </c>
       <c r="D2424" t="n">
-        <v>480896616</v>
+        <v>480798121</v>
       </c>
     </row>
     <row r="2425">
       <c r="A2425" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2425" t="inlineStr">
         <is>
@@ -44036,12 +44036,12 @@
         </is>
       </c>
       <c r="D2425" t="n">
-        <v>480463787</v>
+        <v>480897853</v>
       </c>
     </row>
     <row r="2426">
       <c r="A2426" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2426" t="inlineStr">
         <is>
@@ -44054,12 +44054,12 @@
         </is>
       </c>
       <c r="D2426" t="n">
-        <v>480897430</v>
+        <v>480898465</v>
       </c>
     </row>
     <row r="2427">
       <c r="A2427" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2427" t="inlineStr">
         <is>
@@ -44072,12 +44072,12 @@
         </is>
       </c>
       <c r="D2427" t="n">
-        <v>480485475</v>
+        <v>480196354</v>
       </c>
     </row>
     <row r="2428">
       <c r="A2428" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2428" t="inlineStr">
         <is>
@@ -44090,12 +44090,12 @@
         </is>
       </c>
       <c r="D2428" t="n">
-        <v>480771327</v>
+        <v>480479624</v>
       </c>
     </row>
     <row r="2429">
       <c r="A2429" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2429" t="inlineStr">
         <is>
@@ -44108,7 +44108,7 @@
         </is>
       </c>
       <c r="D2429" t="n">
-        <v>480679132</v>
+        <v>480191020</v>
       </c>
     </row>
     <row r="2430">
@@ -44126,7 +44126,7 @@
         </is>
       </c>
       <c r="D2430" t="n">
-        <v>480359911</v>
+        <v>480710426</v>
       </c>
     </row>
     <row r="2431">
@@ -44144,7 +44144,7 @@
         </is>
       </c>
       <c r="D2431" t="n">
-        <v>480734631</v>
+        <v>480650949</v>
       </c>
     </row>
     <row r="2432">
@@ -44162,12 +44162,12 @@
         </is>
       </c>
       <c r="D2432" t="n">
-        <v>480842489</v>
+        <v>480898347</v>
       </c>
     </row>
     <row r="2433">
       <c r="A2433" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2433" t="inlineStr">
         <is>
@@ -44180,12 +44180,12 @@
         </is>
       </c>
       <c r="D2433" t="n">
-        <v>481061111</v>
+        <v>480896890</v>
       </c>
     </row>
     <row r="2434">
       <c r="A2434" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2434" t="inlineStr">
         <is>
@@ -44198,7 +44198,7 @@
         </is>
       </c>
       <c r="D2434" t="n">
-        <v>480676522</v>
+        <v>480673521</v>
       </c>
     </row>
     <row r="2435">
@@ -44216,7 +44216,7 @@
         </is>
       </c>
       <c r="D2435" t="n">
-        <v>480500784</v>
+        <v>480679132</v>
       </c>
     </row>
     <row r="2436">
@@ -44234,7 +44234,7 @@
         </is>
       </c>
       <c r="D2436" t="n">
-        <v>480897102</v>
+        <v>481061111</v>
       </c>
     </row>
     <row r="2437">
@@ -44252,7 +44252,7 @@
         </is>
       </c>
       <c r="D2437" t="n">
-        <v>480593923</v>
+        <v>480485475</v>
       </c>
     </row>
     <row r="2438">
@@ -44270,7 +44270,7 @@
         </is>
       </c>
       <c r="D2438" t="n">
-        <v>480583959</v>
+        <v>480463787</v>
       </c>
     </row>
     <row r="2439">
@@ -44288,7 +44288,7 @@
         </is>
       </c>
       <c r="D2439" t="n">
-        <v>480898322</v>
+        <v>480897430</v>
       </c>
     </row>
     <row r="2440">
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="D2440" t="n">
-        <v>481061240</v>
+        <v>480757035</v>
       </c>
     </row>
     <row r="2441">
@@ -44324,7 +44324,7 @@
         </is>
       </c>
       <c r="D2441" t="n">
-        <v>480897323</v>
+        <v>480669124</v>
       </c>
     </row>
     <row r="2442">
@@ -44342,12 +44342,12 @@
         </is>
       </c>
       <c r="D2442" t="n">
-        <v>480757035</v>
+        <v>480426898</v>
       </c>
     </row>
     <row r="2443">
       <c r="A2443" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
@@ -44360,12 +44360,12 @@
         </is>
       </c>
       <c r="D2443" t="n">
-        <v>480051694</v>
+        <v>480596743</v>
       </c>
     </row>
     <row r="2444">
       <c r="A2444" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2444" t="inlineStr">
         <is>
@@ -44378,12 +44378,12 @@
         </is>
       </c>
       <c r="D2444" t="n">
-        <v>480810591</v>
+        <v>480755127</v>
       </c>
     </row>
     <row r="2445">
       <c r="A2445" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2445" t="inlineStr">
         <is>
@@ -44396,7 +44396,7 @@
         </is>
       </c>
       <c r="D2445" t="n">
-        <v>480714434</v>
+        <v>480597446</v>
       </c>
     </row>
     <row r="2446">
@@ -44414,7 +44414,7 @@
         </is>
       </c>
       <c r="D2446" t="n">
-        <v>480816843</v>
+        <v>480756443</v>
       </c>
     </row>
     <row r="2447">
@@ -44432,12 +44432,12 @@
         </is>
       </c>
       <c r="D2447" t="n">
-        <v>480201617</v>
+        <v>480464559</v>
       </c>
     </row>
     <row r="2448">
       <c r="A2448" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2448" t="inlineStr">
         <is>
@@ -44450,12 +44450,12 @@
         </is>
       </c>
       <c r="D2448" t="n">
-        <v>480669124</v>
+        <v>480897313</v>
       </c>
     </row>
     <row r="2449">
       <c r="A2449" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2449" t="inlineStr">
         <is>
@@ -44468,12 +44468,12 @@
         </is>
       </c>
       <c r="D2449" t="n">
-        <v>480426898</v>
+        <v>480293117</v>
       </c>
     </row>
     <row r="2450">
       <c r="A2450" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2450" t="inlineStr">
         <is>
@@ -44486,12 +44486,12 @@
         </is>
       </c>
       <c r="D2450" t="n">
-        <v>480596743</v>
+        <v>480447353</v>
       </c>
     </row>
     <row r="2451">
       <c r="A2451" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2451" t="inlineStr">
         <is>
@@ -44504,12 +44504,12 @@
         </is>
       </c>
       <c r="D2451" t="n">
-        <v>480755127</v>
+        <v>480654558</v>
       </c>
     </row>
     <row r="2452">
       <c r="A2452" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2452" t="inlineStr">
         <is>
@@ -44522,12 +44522,12 @@
         </is>
       </c>
       <c r="D2452" t="n">
-        <v>480597446</v>
+        <v>480051694</v>
       </c>
     </row>
     <row r="2453">
       <c r="A2453" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2453" t="inlineStr">
         <is>
@@ -44540,12 +44540,12 @@
         </is>
       </c>
       <c r="D2453" t="n">
-        <v>480479624</v>
+        <v>480668488</v>
       </c>
     </row>
     <row r="2454">
       <c r="A2454" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2454" t="inlineStr">
         <is>
@@ -44558,12 +44558,12 @@
         </is>
       </c>
       <c r="D2454" t="n">
-        <v>480191020</v>
+        <v>480898441</v>
       </c>
     </row>
     <row r="2455">
       <c r="A2455" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2455" t="inlineStr">
         <is>
@@ -44576,12 +44576,12 @@
         </is>
       </c>
       <c r="D2455" t="n">
-        <v>480710426</v>
+        <v>480690971</v>
       </c>
     </row>
     <row r="2456">
       <c r="A2456" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2456" t="inlineStr">
         <is>
@@ -44594,12 +44594,12 @@
         </is>
       </c>
       <c r="D2456" t="n">
-        <v>480293117</v>
+        <v>480896616</v>
       </c>
     </row>
     <row r="2457">
       <c r="A2457" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2457" t="inlineStr">
         <is>
@@ -44612,12 +44612,12 @@
         </is>
       </c>
       <c r="D2457" t="n">
-        <v>480447353</v>
+        <v>480676522</v>
       </c>
     </row>
     <row r="2458">
       <c r="A2458" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2458" t="inlineStr">
         <is>
@@ -44630,12 +44630,12 @@
         </is>
       </c>
       <c r="D2458" t="n">
-        <v>480650949</v>
+        <v>480500784</v>
       </c>
     </row>
     <row r="2459">
       <c r="A2459" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2459" t="inlineStr">
         <is>
@@ -44648,12 +44648,12 @@
         </is>
       </c>
       <c r="D2459" t="n">
-        <v>480898347</v>
+        <v>480897102</v>
       </c>
     </row>
     <row r="2460">
       <c r="A2460" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2460" t="inlineStr">
         <is>
@@ -44666,12 +44666,12 @@
         </is>
       </c>
       <c r="D2460" t="n">
-        <v>480896890</v>
+        <v>480593923</v>
       </c>
     </row>
     <row r="2461">
       <c r="A2461" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2461" t="inlineStr">
         <is>
@@ -44684,12 +44684,12 @@
         </is>
       </c>
       <c r="D2461" t="n">
-        <v>480897853</v>
+        <v>480583959</v>
       </c>
     </row>
     <row r="2462">
       <c r="A2462" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2462" t="inlineStr">
         <is>
@@ -44702,12 +44702,12 @@
         </is>
       </c>
       <c r="D2462" t="n">
-        <v>480898465</v>
+        <v>480898322</v>
       </c>
     </row>
     <row r="2463">
       <c r="A2463" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2463" t="inlineStr">
         <is>
@@ -44720,12 +44720,12 @@
         </is>
       </c>
       <c r="D2463" t="n">
-        <v>480756443</v>
+        <v>481061240</v>
       </c>
     </row>
     <row r="2464">
       <c r="A2464" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2464" t="inlineStr">
         <is>
@@ -44738,7 +44738,7 @@
         </is>
       </c>
       <c r="D2464" t="n">
-        <v>481060948</v>
+        <v>480897323</v>
       </c>
     </row>
     <row r="2465">
@@ -44756,7 +44756,7 @@
         </is>
       </c>
       <c r="D2465" t="n">
-        <v>480171060</v>
+        <v>480789954</v>
       </c>
     </row>
     <row r="2466">
@@ -44774,12 +44774,12 @@
         </is>
       </c>
       <c r="D2466" t="n">
-        <v>480763973</v>
+        <v>480712026</v>
       </c>
     </row>
     <row r="2467">
       <c r="A2467" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2467" t="inlineStr">
         <is>
@@ -44792,12 +44792,12 @@
         </is>
       </c>
       <c r="D2467" t="n">
-        <v>480897900</v>
+        <v>480344372</v>
       </c>
     </row>
     <row r="2468">
       <c r="A2468" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2468" t="inlineStr">
         <is>
@@ -44810,12 +44810,12 @@
         </is>
       </c>
       <c r="D2468" t="n">
-        <v>480546643</v>
+        <v>481061344</v>
       </c>
     </row>
     <row r="2469">
       <c r="A2469" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2469" t="inlineStr">
         <is>
@@ -44828,12 +44828,12 @@
         </is>
       </c>
       <c r="D2469" t="n">
-        <v>480464559</v>
+        <v>480898318</v>
       </c>
     </row>
     <row r="2470">
       <c r="A2470" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2470" t="inlineStr">
         <is>
@@ -44846,12 +44846,12 @@
         </is>
       </c>
       <c r="D2470" t="n">
-        <v>480196354</v>
+        <v>480755951</v>
       </c>
     </row>
     <row r="2471">
       <c r="A2471" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2471" t="inlineStr">
         <is>
@@ -44864,12 +44864,12 @@
         </is>
       </c>
       <c r="D2471" t="n">
-        <v>480897313</v>
+        <v>480755475</v>
       </c>
     </row>
     <row r="2472">
       <c r="A2472" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2472" t="inlineStr">
         <is>
@@ -44882,7 +44882,7 @@
         </is>
       </c>
       <c r="D2472" t="n">
-        <v>480673521</v>
+        <v>480771327</v>
       </c>
     </row>
     <row r="2473">
@@ -44900,7 +44900,7 @@
         </is>
       </c>
       <c r="D2473" t="n">
-        <v>480654558</v>
+        <v>480650873</v>
       </c>
     </row>
     <row r="2474">
@@ -44918,7 +44918,7 @@
         </is>
       </c>
       <c r="D2474" t="n">
-        <v>480650873</v>
+        <v>481060948</v>
       </c>
     </row>
     <row r="2475">
@@ -44936,7 +44936,7 @@
         </is>
       </c>
       <c r="D2475" t="n">
-        <v>480597373</v>
+        <v>480171060</v>
       </c>
     </row>
     <row r="2476">
@@ -44954,7 +44954,7 @@
         </is>
       </c>
       <c r="D2476" t="n">
-        <v>480557490</v>
+        <v>480763973</v>
       </c>
     </row>
     <row r="2477">
@@ -44972,7 +44972,7 @@
         </is>
       </c>
       <c r="D2477" t="n">
-        <v>480810273</v>
+        <v>480897900</v>
       </c>
     </row>
     <row r="2478">
@@ -44990,7 +44990,7 @@
         </is>
       </c>
       <c r="D2478" t="n">
-        <v>480789679</v>
+        <v>480546643</v>
       </c>
     </row>
     <row r="2479">
@@ -45008,7 +45008,7 @@
         </is>
       </c>
       <c r="D2479" t="n">
-        <v>480539651</v>
+        <v>480597373</v>
       </c>
     </row>
     <row r="2480">
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="D2480" t="n">
-        <v>480763762</v>
+        <v>480557490</v>
       </c>
     </row>
     <row r="2481">
@@ -45044,7 +45044,7 @@
         </is>
       </c>
       <c r="D2481" t="n">
-        <v>480735531</v>
+        <v>480810273</v>
       </c>
     </row>
     <row r="2482">
@@ -45062,7 +45062,7 @@
         </is>
       </c>
       <c r="D2482" t="n">
-        <v>480046352</v>
+        <v>480789679</v>
       </c>
     </row>
     <row r="2483">
@@ -45080,7 +45080,7 @@
         </is>
       </c>
       <c r="D2483" t="n">
-        <v>480639923</v>
+        <v>480763762</v>
       </c>
     </row>
     <row r="2484">
@@ -45098,7 +45098,7 @@
         </is>
       </c>
       <c r="D2484" t="n">
-        <v>480633758</v>
+        <v>480735531</v>
       </c>
     </row>
     <row r="2485">
@@ -45116,12 +45116,12 @@
         </is>
       </c>
       <c r="D2485" t="n">
-        <v>480725230</v>
+        <v>480539651</v>
       </c>
     </row>
     <row r="2486">
       <c r="A2486" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2486" t="inlineStr">
         <is>
@@ -45134,12 +45134,12 @@
         </is>
       </c>
       <c r="D2486" t="n">
-        <v>480436026</v>
+        <v>480046352</v>
       </c>
     </row>
     <row r="2487">
       <c r="A2487" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2487" t="inlineStr">
         <is>
@@ -45152,12 +45152,12 @@
         </is>
       </c>
       <c r="D2487" t="n">
-        <v>480293418</v>
+        <v>480201617</v>
       </c>
     </row>
     <row r="2488">
       <c r="A2488" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2488" t="inlineStr">
         <is>
@@ -45170,12 +45170,12 @@
         </is>
       </c>
       <c r="D2488" t="n">
-        <v>481060471</v>
+        <v>480639923</v>
       </c>
     </row>
     <row r="2489">
       <c r="A2489" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2489" t="inlineStr">
         <is>
@@ -45188,12 +45188,12 @@
         </is>
       </c>
       <c r="D2489" t="n">
-        <v>480539531</v>
+        <v>480633758</v>
       </c>
     </row>
     <row r="2490">
       <c r="A2490" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2490" t="inlineStr">
         <is>
@@ -45206,12 +45206,12 @@
         </is>
       </c>
       <c r="D2490" t="n">
-        <v>480689379</v>
+        <v>480725230</v>
       </c>
     </row>
     <row r="2491">
       <c r="A2491" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2491" t="inlineStr">
         <is>
@@ -45224,12 +45224,12 @@
         </is>
       </c>
       <c r="D2491" t="n">
-        <v>480344222</v>
+        <v>480714434</v>
       </c>
     </row>
     <row r="2492">
       <c r="A2492" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2492" t="inlineStr">
         <is>
@@ -45242,12 +45242,12 @@
         </is>
       </c>
       <c r="D2492" t="n">
-        <v>480380451</v>
+        <v>480359911</v>
       </c>
     </row>
     <row r="2493">
       <c r="A2493" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2493" t="inlineStr">
         <is>
@@ -45260,12 +45260,12 @@
         </is>
       </c>
       <c r="D2493" t="n">
-        <v>480536876</v>
+        <v>480527110</v>
       </c>
     </row>
     <row r="2494">
       <c r="A2494" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2494" t="inlineStr">
         <is>
@@ -45278,12 +45278,12 @@
         </is>
       </c>
       <c r="D2494" t="n">
-        <v>480512029</v>
+        <v>480735019</v>
       </c>
     </row>
     <row r="2495">
       <c r="A2495" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2495" t="inlineStr">
         <is>
@@ -45296,12 +45296,12 @@
         </is>
       </c>
       <c r="D2495" t="n">
-        <v>480070574</v>
+        <v>480734631</v>
       </c>
     </row>
     <row r="2496">
       <c r="A2496" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B2496" t="inlineStr">
         <is>
@@ -45314,12 +45314,12 @@
         </is>
       </c>
       <c r="D2496" t="n">
-        <v>481061801</v>
+        <v>480842489</v>
       </c>
     </row>
     <row r="2497">
       <c r="A2497" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2497" t="inlineStr">
         <is>
@@ -45332,12 +45332,12 @@
         </is>
       </c>
       <c r="D2497" t="n">
-        <v>480460869</v>
+        <v>480436026</v>
       </c>
     </row>
     <row r="2498">
       <c r="A2498" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2498" t="inlineStr">
         <is>
@@ -45350,12 +45350,12 @@
         </is>
       </c>
       <c r="D2498" t="n">
-        <v>480586425</v>
+        <v>480293418</v>
       </c>
     </row>
     <row r="2499">
       <c r="A2499" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2499" t="inlineStr">
         <is>
@@ -45368,12 +45368,12 @@
         </is>
       </c>
       <c r="D2499" t="n">
-        <v>480443561</v>
+        <v>481060471</v>
       </c>
     </row>
     <row r="2500">
       <c r="A2500" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2500" t="inlineStr">
         <is>
@@ -45386,12 +45386,12 @@
         </is>
       </c>
       <c r="D2500" t="n">
-        <v>480478491</v>
+        <v>480539531</v>
       </c>
     </row>
     <row r="2501">
       <c r="A2501" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2501" t="inlineStr">
         <is>
@@ -45404,12 +45404,12 @@
         </is>
       </c>
       <c r="D2501" t="n">
-        <v>480853848</v>
+        <v>480689379</v>
       </c>
     </row>
     <row r="2502">
       <c r="A2502" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2502" t="inlineStr">
         <is>
@@ -45422,12 +45422,12 @@
         </is>
       </c>
       <c r="D2502" t="n">
-        <v>480660280</v>
+        <v>480344222</v>
       </c>
     </row>
     <row r="2503">
       <c r="A2503" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2503" t="inlineStr">
         <is>
@@ -45440,12 +45440,12 @@
         </is>
       </c>
       <c r="D2503" t="n">
-        <v>480616845</v>
+        <v>480380451</v>
       </c>
     </row>
     <row r="2504">
       <c r="A2504" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2504" t="inlineStr">
         <is>
@@ -45458,12 +45458,12 @@
         </is>
       </c>
       <c r="D2504" t="n">
-        <v>480687122</v>
+        <v>480536876</v>
       </c>
     </row>
     <row r="2505">
       <c r="A2505" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2505" t="inlineStr">
         <is>
@@ -45476,12 +45476,12 @@
         </is>
       </c>
       <c r="D2505" t="n">
-        <v>480449425</v>
+        <v>480512029</v>
       </c>
     </row>
     <row r="2506">
       <c r="A2506" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2506" t="inlineStr">
         <is>
@@ -45494,12 +45494,12 @@
         </is>
       </c>
       <c r="D2506" t="n">
-        <v>480621888</v>
+        <v>480070574</v>
       </c>
     </row>
     <row r="2507">
       <c r="A2507" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B2507" t="inlineStr">
         <is>
@@ -45512,7 +45512,7 @@
         </is>
       </c>
       <c r="D2507" t="n">
-        <v>480714206</v>
+        <v>481061801</v>
       </c>
     </row>
     <row r="2508">
@@ -45530,7 +45530,7 @@
         </is>
       </c>
       <c r="D2508" t="n">
-        <v>480741738</v>
+        <v>480716407</v>
       </c>
     </row>
     <row r="2509">
@@ -45548,7 +45548,7 @@
         </is>
       </c>
       <c r="D2509" t="n">
-        <v>480607363</v>
+        <v>480018158</v>
       </c>
     </row>
     <row r="2510">
@@ -45566,7 +45566,7 @@
         </is>
       </c>
       <c r="D2510" t="n">
-        <v>480384509</v>
+        <v>480646815</v>
       </c>
     </row>
     <row r="2511">
@@ -45584,7 +45584,7 @@
         </is>
       </c>
       <c r="D2511" t="n">
-        <v>480090528</v>
+        <v>480045768</v>
       </c>
     </row>
     <row r="2512">
@@ -45602,7 +45602,7 @@
         </is>
       </c>
       <c r="D2512" t="n">
-        <v>480870282</v>
+        <v>480850915</v>
       </c>
     </row>
     <row r="2513">
@@ -45620,7 +45620,7 @@
         </is>
       </c>
       <c r="D2513" t="n">
-        <v>480728491</v>
+        <v>480063177</v>
       </c>
     </row>
     <row r="2514">
@@ -45638,7 +45638,7 @@
         </is>
       </c>
       <c r="D2514" t="n">
-        <v>480684518</v>
+        <v>480535437</v>
       </c>
     </row>
     <row r="2515">
@@ -45656,7 +45656,7 @@
         </is>
       </c>
       <c r="D2515" t="n">
-        <v>480640703</v>
+        <v>480404898</v>
       </c>
     </row>
     <row r="2516">
@@ -45674,7 +45674,7 @@
         </is>
       </c>
       <c r="D2516" t="n">
-        <v>480686944</v>
+        <v>480585496</v>
       </c>
     </row>
     <row r="2517">
@@ -45692,7 +45692,7 @@
         </is>
       </c>
       <c r="D2517" t="n">
-        <v>480255467</v>
+        <v>480810591</v>
       </c>
     </row>
     <row r="2518">
@@ -45710,7 +45710,7 @@
         </is>
       </c>
       <c r="D2518" t="n">
-        <v>480665452</v>
+        <v>480816843</v>
       </c>
     </row>
     <row r="2519">
@@ -45728,7 +45728,7 @@
         </is>
       </c>
       <c r="D2519" t="n">
-        <v>480504220</v>
+        <v>480384509</v>
       </c>
     </row>
     <row r="2520">
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="D2520" t="n">
-        <v>480709281</v>
+        <v>480728491</v>
       </c>
     </row>
     <row r="2521">
@@ -45764,7 +45764,7 @@
         </is>
       </c>
       <c r="D2521" t="n">
-        <v>480716407</v>
+        <v>480684518</v>
       </c>
     </row>
     <row r="2522">
@@ -45782,7 +45782,7 @@
         </is>
       </c>
       <c r="D2522" t="n">
-        <v>480018158</v>
+        <v>480640703</v>
       </c>
     </row>
     <row r="2523">
@@ -45800,7 +45800,7 @@
         </is>
       </c>
       <c r="D2523" t="n">
-        <v>480646815</v>
+        <v>480686944</v>
       </c>
     </row>
     <row r="2524">
@@ -45818,7 +45818,7 @@
         </is>
       </c>
       <c r="D2524" t="n">
-        <v>480045768</v>
+        <v>480090528</v>
       </c>
     </row>
     <row r="2525">
@@ -45836,7 +45836,7 @@
         </is>
       </c>
       <c r="D2525" t="n">
-        <v>480850915</v>
+        <v>480870282</v>
       </c>
     </row>
     <row r="2526">
@@ -45854,7 +45854,7 @@
         </is>
       </c>
       <c r="D2526" t="n">
-        <v>480063177</v>
+        <v>480449425</v>
       </c>
     </row>
     <row r="2527">
@@ -45872,7 +45872,7 @@
         </is>
       </c>
       <c r="D2527" t="n">
-        <v>480535437</v>
+        <v>480621888</v>
       </c>
     </row>
     <row r="2528">
@@ -45890,7 +45890,7 @@
         </is>
       </c>
       <c r="D2528" t="n">
-        <v>480404898</v>
+        <v>480714206</v>
       </c>
     </row>
     <row r="2529">
@@ -45908,7 +45908,7 @@
         </is>
       </c>
       <c r="D2529" t="n">
-        <v>480585496</v>
+        <v>480741738</v>
       </c>
     </row>
     <row r="2530">
@@ -45926,7 +45926,7 @@
         </is>
       </c>
       <c r="D2530" t="n">
-        <v>480691441</v>
+        <v>480607363</v>
       </c>
     </row>
     <row r="2531">
@@ -45944,7 +45944,7 @@
         </is>
       </c>
       <c r="D2531" t="n">
-        <v>480832016</v>
+        <v>480255467</v>
       </c>
     </row>
     <row r="2532">
@@ -45962,7 +45962,7 @@
         </is>
       </c>
       <c r="D2532" t="n">
-        <v>480481347</v>
+        <v>480665452</v>
       </c>
     </row>
     <row r="2533">
@@ -45980,7 +45980,7 @@
         </is>
       </c>
       <c r="D2533" t="n">
-        <v>480724313</v>
+        <v>480504220</v>
       </c>
     </row>
     <row r="2534">
@@ -45998,7 +45998,7 @@
         </is>
       </c>
       <c r="D2534" t="n">
-        <v>480393634</v>
+        <v>480832016</v>
       </c>
     </row>
     <row r="2535">
@@ -46016,7 +46016,7 @@
         </is>
       </c>
       <c r="D2535" t="n">
-        <v>480798121</v>
+        <v>480709281</v>
       </c>
     </row>
     <row r="2536">
@@ -46124,12 +46124,12 @@
         </is>
       </c>
       <c r="D2541" t="n">
-        <v>479203678</v>
+        <v>478527160</v>
       </c>
     </row>
     <row r="2542">
       <c r="A2542" s="2" t="n">
-        <v>45824</v>
+        <v>45997</v>
       </c>
       <c r="B2542" t="inlineStr">
         <is>
@@ -46142,7 +46142,7 @@
         </is>
       </c>
       <c r="D2542" t="n">
-        <v>478969836</v>
+        <v>479203678</v>
       </c>
     </row>
     <row r="2543">
@@ -46174,16 +46174,16 @@
       </c>
       <c r="C2544" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D2544" t="n">
-        <v>479148045</v>
+        <v>478969836</v>
       </c>
     </row>
     <row r="2545">
       <c r="A2545" s="2" t="n">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="B2545" t="inlineStr">
         <is>
@@ -46192,16 +46192,16 @@
       </c>
       <c r="C2545" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D2545" t="n">
-        <v>479347246</v>
+        <v>479853867</v>
       </c>
     </row>
     <row r="2546">
       <c r="A2546" s="2" t="n">
-        <v>45821</v>
+        <v>45832</v>
       </c>
       <c r="B2546" t="inlineStr">
         <is>
@@ -46210,16 +46210,16 @@
       </c>
       <c r="C2546" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D2546" t="n">
-        <v>478643946</v>
+        <v>479584573</v>
       </c>
     </row>
     <row r="2547">
       <c r="A2547" s="2" t="n">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="B2547" t="inlineStr">
         <is>
@@ -46232,12 +46232,12 @@
         </is>
       </c>
       <c r="D2547" t="n">
-        <v>479872978</v>
+        <v>479582845</v>
       </c>
     </row>
     <row r="2548">
       <c r="A2548" s="2" t="n">
-        <v>45997</v>
+        <v>45832</v>
       </c>
       <c r="B2548" t="inlineStr">
         <is>
@@ -46246,16 +46246,16 @@
       </c>
       <c r="C2548" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D2548" t="n">
-        <v>478527160</v>
+        <v>479582844</v>
       </c>
     </row>
     <row r="2549">
       <c r="A2549" s="2" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B2549" t="inlineStr">
         <is>
@@ -46264,16 +46264,16 @@
       </c>
       <c r="C2549" t="inlineStr">
         <is>
-          <t>Tratativa</t>
+          <t>Em base</t>
         </is>
       </c>
       <c r="D2549" t="n">
-        <v>479348448</v>
+        <v>479872978</v>
       </c>
     </row>
     <row r="2550">
       <c r="A2550" s="2" t="n">
-        <v>45832</v>
+        <v>45824</v>
       </c>
       <c r="B2550" t="inlineStr">
         <is>
@@ -46286,12 +46286,12 @@
         </is>
       </c>
       <c r="D2550" t="n">
-        <v>479853867</v>
+        <v>479148045</v>
       </c>
     </row>
     <row r="2551">
       <c r="A2551" s="2" t="n">
-        <v>45832</v>
+        <v>45826</v>
       </c>
       <c r="B2551" t="inlineStr">
         <is>
@@ -46300,16 +46300,16 @@
       </c>
       <c r="C2551" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D2551" t="n">
-        <v>479584573</v>
+        <v>479347246</v>
       </c>
     </row>
     <row r="2552">
       <c r="A2552" s="2" t="n">
-        <v>45832</v>
+        <v>45821</v>
       </c>
       <c r="B2552" t="inlineStr">
         <is>
@@ -46318,16 +46318,16 @@
       </c>
       <c r="C2552" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D2552" t="n">
-        <v>479582845</v>
+        <v>478643946</v>
       </c>
     </row>
     <row r="2553">
       <c r="A2553" s="2" t="n">
-        <v>45832</v>
+        <v>45825</v>
       </c>
       <c r="B2553" t="inlineStr">
         <is>
@@ -46336,11 +46336,11 @@
       </c>
       <c r="C2553" t="inlineStr">
         <is>
-          <t>Em base</t>
+          <t>Tratativa</t>
         </is>
       </c>
       <c r="D2553" t="n">
-        <v>479582844</v>
+        <v>479348448</v>
       </c>
     </row>
     <row r="2554">
@@ -46394,12 +46394,12 @@
         </is>
       </c>
       <c r="D2556" t="n">
-        <v>479799602</v>
+        <v>479546890</v>
       </c>
     </row>
     <row r="2557">
       <c r="A2557" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B2557" t="inlineStr">
         <is>
@@ -46412,12 +46412,12 @@
         </is>
       </c>
       <c r="D2557" t="n">
-        <v>479977790</v>
+        <v>478462957</v>
       </c>
     </row>
     <row r="2558">
       <c r="A2558" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B2558" t="inlineStr">
         <is>
@@ -46430,12 +46430,12 @@
         </is>
       </c>
       <c r="D2558" t="n">
-        <v>479721635</v>
+        <v>479697763</v>
       </c>
     </row>
     <row r="2559">
       <c r="A2559" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="B2559" t="inlineStr">
         <is>
@@ -46448,7 +46448,7 @@
         </is>
       </c>
       <c r="D2559" t="n">
-        <v>479534903</v>
+        <v>479627869</v>
       </c>
     </row>
     <row r="2560">
@@ -46466,12 +46466,12 @@
         </is>
       </c>
       <c r="D2560" t="n">
-        <v>479972816</v>
+        <v>479799602</v>
       </c>
     </row>
     <row r="2561">
       <c r="A2561" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B2561" t="inlineStr">
         <is>
@@ -46484,12 +46484,12 @@
         </is>
       </c>
       <c r="D2561" t="n">
-        <v>478462957</v>
+        <v>479977790</v>
       </c>
     </row>
     <row r="2562">
       <c r="A2562" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B2562" t="inlineStr">
         <is>
@@ -46502,12 +46502,12 @@
         </is>
       </c>
       <c r="D2562" t="n">
-        <v>479697763</v>
+        <v>479721635</v>
       </c>
     </row>
     <row r="2563">
       <c r="A2563" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="B2563" t="inlineStr">
         <is>
@@ -46520,7 +46520,7 @@
         </is>
       </c>
       <c r="D2563" t="n">
-        <v>479627869</v>
+        <v>479534903</v>
       </c>
     </row>
     <row r="2564">
@@ -46538,7 +46538,7 @@
         </is>
       </c>
       <c r="D2564" t="n">
-        <v>479546890</v>
+        <v>479972816</v>
       </c>
     </row>
     <row r="2565">
